--- a/Summary of All done so Far/weight_percentages.xlsx
+++ b/Summary of All done so Far/weight_percentages.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,32 +520,32 @@
         <v>60.48571770256616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01999626672400343</v>
+        <v>0.01999626672400344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0500020052944297</v>
+        <v>0.05000200529442972</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05004393523866757</v>
+        <v>0.05004393523866758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009991702019208966</v>
+        <v>0.009991702019208968</v>
       </c>
       <c r="G2" t="n">
-        <v>19.68631321111744</v>
+        <v>19.68631321111745</v>
       </c>
       <c r="H2" t="n">
         <v>2.950084802655898</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009967147094777364</v>
+        <v>0.009967147094777366</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.00999772824767505</v>
+        <v>0.009997728247675051</v>
       </c>
       <c r="L2" t="n">
-        <v>15.03101328848969</v>
+        <v>15.0310132884897</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.03190427758348</v>
+        <v>61.03190427758349</v>
       </c>
       <c r="C3" t="n">
         <v>0.1799374727559985</v>
@@ -583,10 +583,10 @@
         <v>3.012885233284313</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4602224492522251</v>
+        <v>0.4602224492522252</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04005136406826169</v>
+        <v>0.0400513640682617</v>
       </c>
       <c r="K3" t="n">
         <v>0.010006834385162</v>
@@ -655,13 +655,13 @@
         <v>61.64438432072582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009996018007154257</v>
+        <v>0.009996018007154259</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05002585271309741</v>
+        <v>0.05002585271309742</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04987633878246647</v>
+        <v>0.04987633878246648</v>
       </c>
       <c r="F5" t="n">
         <v>0.01004876939954609</v>
@@ -684,7 +684,7 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.1301289343376016</v>
+        <v>0.1301289343376017</v>
       </c>
       <c r="O5" t="n">
         <v>1.46679305014559</v>
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.42353205200977</v>
+        <v>62.42353205200975</v>
       </c>
       <c r="C6" t="n">
         <v>0.0100060907185249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05001606631355475</v>
+        <v>0.05001606631355474</v>
       </c>
       <c r="E6" t="n">
         <v>0.04985431224051468</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009961009640081309</v>
+        <v>0.009961009640081306</v>
       </c>
       <c r="G6" t="n">
-        <v>19.39327183520026</v>
+        <v>19.39327183520025</v>
       </c>
       <c r="H6" t="n">
         <v>1.450274990226117</v>
@@ -722,10 +722,10 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.009993143221890271</v>
+        <v>0.009993143221890268</v>
       </c>
       <c r="L6" t="n">
-        <v>14.91516180163529</v>
+        <v>14.91516180163528</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.68629157569591</v>
+        <v>63.6862915756959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1897403185225496</v>
+        <v>0.1897403185225495</v>
       </c>
       <c r="D7" t="n">
         <v>0.01999739535633143</v>
@@ -760,14 +760,14 @@
         <v>0.9387624563426819</v>
       </c>
       <c r="H7" t="n">
-        <v>1.961346750812516</v>
+        <v>1.961346750812515</v>
       </c>
       <c r="I7" t="n">
         <v>0.009956507824440851</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.009995385822165468</v>
+        <v>0.009995385822165467</v>
       </c>
       <c r="L7" t="n">
         <v>20.0778266572232</v>
@@ -785,26 +785,26 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.80141640949491</v>
+        <v>62.80141640949493</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>0.04998156431930931</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05002347712245569</v>
+        <v>0.0500234771224557</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009987617380379333</v>
+        <v>0.009987617380379335</v>
       </c>
       <c r="G8" t="n">
         <v>18.14090090189961</v>
       </c>
       <c r="H8" t="n">
-        <v>3.602323532652692</v>
+        <v>3.602323532652693</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009963072494077132</v>
+        <v>0.009963072494077133</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
@@ -818,7 +818,7 @@
         <v>0.110252709587504</v>
       </c>
       <c r="O8" t="n">
-        <v>2.248473459994127</v>
+        <v>2.248473459994128</v>
       </c>
     </row>
     <row r="9">
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.72879349817485</v>
+        <v>62.72879349817486</v>
       </c>
       <c r="C9" t="n">
         <v>0.1000379541894488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5702920237128113</v>
+        <v>0.5702920237128114</v>
       </c>
       <c r="E9" t="n">
         <v>0.2402645251174678</v>
@@ -846,7 +846,7 @@
         <v>0.01000143934228782</v>
       </c>
       <c r="H9" t="n">
-        <v>8.909151771264376</v>
+        <v>8.909151771264378</v>
       </c>
       <c r="I9" t="n">
         <v>0.01000931959277475</v>
@@ -855,10 +855,10 @@
         <v>0.01999578263377309</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009999643855382967</v>
+        <v>0.009999643855382968</v>
       </c>
       <c r="L9" t="n">
-        <v>15.16597676257661</v>
+        <v>15.16597676257662</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.48299452711844</v>
+        <v>66.48299452711841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009996055081114737</v>
+        <v>0.009996055081114735</v>
       </c>
       <c r="D10" t="n">
         <v>0.01000225151557843</v>
@@ -885,30 +885,30 @@
         <v>1.991649925829569</v>
       </c>
       <c r="F10" t="n">
-        <v>17.48124245923365</v>
+        <v>17.48124245923364</v>
       </c>
       <c r="G10" t="n">
         <v>2.102675194368262</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01991932851264641</v>
+        <v>0.0199193285126464</v>
       </c>
       <c r="I10" t="n">
         <v>0.01001407963594257</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>0.01000213356874122</v>
+        <v>0.01000213356874121</v>
       </c>
       <c r="L10" t="n">
         <v>11.80147576943201</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>0.02999029820717615</v>
+        <v>0.02999029820717614</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05003797749690307</v>
+        <v>0.05003797749690306</v>
       </c>
     </row>
     <row r="11">
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.18361644941442</v>
+        <v>64.1836164494144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1599867391715859</v>
+        <v>0.1599867391715858</v>
       </c>
       <c r="D11" t="n">
         <v>0.01003633045751874</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0100123349146597</v>
+        <v>0.01001233491465969</v>
       </c>
       <c r="F11" t="n">
         <v>14.57108544214622</v>
@@ -936,10 +936,10 @@
         <v>0.01000402063376234</v>
       </c>
       <c r="H11" t="n">
-        <v>4.901199151079925</v>
+        <v>4.901199151079924</v>
       </c>
       <c r="I11" t="n">
-        <v>0.479772548922111</v>
+        <v>0.4797725489221109</v>
       </c>
       <c r="J11" t="n">
         <v>0.04993511666357071</v>
@@ -948,11 +948,11 @@
         <v>0.01000224149790293</v>
       </c>
       <c r="L11" t="n">
-        <v>15.57434176727549</v>
+        <v>15.57434176727548</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>0.04000785782284994</v>
+        <v>0.04000785782284993</v>
       </c>
       <c r="O11" t="inlineStr"/>
     </row>
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63.32644485581883</v>
+        <v>63.32644485581884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009995050702448823</v>
+        <v>0.009995050702448825</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05003003463568104</v>
+        <v>0.05003003463568105</v>
       </c>
       <c r="E12" t="n">
         <v>0.04997606473552995</v>
@@ -995,10 +995,10 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>0.08002220513287453</v>
+        <v>0.08002220513287454</v>
       </c>
       <c r="O12" t="n">
-        <v>1.878910888187863</v>
+        <v>1.878910888187864</v>
       </c>
     </row>
     <row r="13">
@@ -1012,19 +1012,19 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>0.0500562076642675</v>
+        <v>0.05005620766426751</v>
       </c>
       <c r="E13" t="n">
         <v>0.05000220952996168</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009983371122648946</v>
+        <v>0.009983371122648948</v>
       </c>
       <c r="G13" t="n">
         <v>18.13318825755641</v>
       </c>
       <c r="H13" t="n">
-        <v>3.50030477828009</v>
+        <v>3.500304778280091</v>
       </c>
       <c r="I13" t="n">
         <v>0.01004775485622811</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>0.09984460301463492</v>
+        <v>0.09984460301463495</v>
       </c>
       <c r="O13" t="n">
         <v>1.620886238668716</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.86878301624229</v>
+        <v>64.8687830162423</v>
       </c>
       <c r="C14" t="n">
         <v>0.1601795844445896</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01003506580683505</v>
+        <v>0.01003506580683506</v>
       </c>
       <c r="E14" t="n">
         <v>0.01001107328758906</v>
@@ -1072,7 +1072,7 @@
         <v>4.696390665802038</v>
       </c>
       <c r="I14" t="n">
-        <v>0.400211784710856</v>
+        <v>0.4002117847108561</v>
       </c>
       <c r="J14" t="n">
         <v>0.03999274000271183</v>
@@ -1096,30 +1096,30 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63.80900302541917</v>
+        <v>63.80900302541919</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>0.05002645305157939</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04997248701506216</v>
+        <v>0.04997248701506217</v>
       </c>
       <c r="F15" t="n">
-        <v>0.009977436766952874</v>
+        <v>0.009977436766952875</v>
       </c>
       <c r="G15" t="n">
         <v>18.02002296062051</v>
       </c>
       <c r="H15" t="n">
-        <v>3.598651599505251</v>
+        <v>3.598651599505252</v>
       </c>
       <c r="I15" t="n">
-        <v>0.500311804875427</v>
+        <v>0.5003118048754271</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>0.009999661298192748</v>
+        <v>0.00999966129819275</v>
       </c>
       <c r="L15" t="n">
         <v>12.02820372117078</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.35968728895521</v>
+        <v>64.35968728895523</v>
       </c>
       <c r="C16" t="n">
         <v>0.1599462871572209</v>
@@ -1157,10 +1157,10 @@
         <v>0.01000193051834763</v>
       </c>
       <c r="H16" t="n">
-        <v>7.147211374577465</v>
+        <v>7.147211374577466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4098899406246034</v>
+        <v>0.4098899406246035</v>
       </c>
       <c r="J16" t="n">
         <v>0.03002138679317107</v>
@@ -1233,13 +1233,13 @@
         <v>0.01999432975964244</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05004061710997916</v>
+        <v>0.05004061710997917</v>
       </c>
       <c r="E18" t="n">
         <v>0.04998663579398387</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00998026169233588</v>
+        <v>0.009980261692335882</v>
       </c>
       <c r="G18" t="n">
         <v>17.00097016525271</v>
@@ -1248,7 +1248,7 @@
         <v>4.068464787138339</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6897902025988646</v>
+        <v>0.6897902025988647</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -1272,34 +1272,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.65590707832338</v>
+        <v>65.65590707832339</v>
       </c>
       <c r="C19" t="n">
         <v>0.1600677589862123</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009997170815249146</v>
+        <v>0.009997170815249147</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6714030695993216</v>
+        <v>0.6714030695993217</v>
       </c>
       <c r="F19" t="n">
-        <v>14.47100285932169</v>
+        <v>14.4710028593217</v>
       </c>
       <c r="G19" t="n">
         <v>0.009999856684429011</v>
       </c>
       <c r="H19" t="n">
-        <v>5.083999794024087</v>
+        <v>5.083999794024088</v>
       </c>
       <c r="I19" t="n">
         <v>0.4098799072740115</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01999121599595619</v>
+        <v>0.0199912159959562</v>
       </c>
       <c r="K19" t="n">
-        <v>0.009994594307597493</v>
+        <v>0.009994594307597495</v>
       </c>
       <c r="L19" t="n">
         <v>13.45775492013635</v>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63.4893701572953</v>
+        <v>63.48937015729531</v>
       </c>
       <c r="C20" t="n">
         <v>0.01001376318327754</v>
@@ -1345,14 +1345,14 @@
         <v>0.01000222379555981</v>
       </c>
       <c r="L20" t="n">
-        <v>14.82122816985495</v>
+        <v>14.82122816985496</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>0.0300247530336227</v>
+        <v>0.03002475303362271</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6200501801121825</v>
+        <v>0.6200501801121826</v>
       </c>
     </row>
     <row r="21">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.68109121081727</v>
+        <v>67.68109121081726</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009998080224644889</v>
+        <v>0.009998080224644887</v>
       </c>
       <c r="D21" t="n">
         <v>0.01000238785632022</v>
@@ -1377,17 +1377,17 @@
         <v>15.63490981562501</v>
       </c>
       <c r="G21" t="n">
-        <v>4.100085199436428</v>
+        <v>4.100085199436427</v>
       </c>
       <c r="H21" t="n">
         <v>0.02005540459447291</v>
       </c>
       <c r="I21" t="n">
-        <v>0.009994046518300409</v>
+        <v>0.009994046518300407</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>0.009999158691041175</v>
+        <v>0.009999158691041173</v>
       </c>
       <c r="L21" t="n">
         <v>10.50283183415176</v>
@@ -1397,7 +1397,7 @@
         <v>0.02997977433618105</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06003076925838258</v>
+        <v>0.06003076925838257</v>
       </c>
     </row>
     <row r="22">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.66570372784811</v>
+        <v>64.6657037278481</v>
       </c>
       <c r="C22" t="n">
         <v>0.009994499026054317</v>
@@ -1416,7 +1416,7 @@
         <v>0.05004543194993247</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05018372023008213</v>
+        <v>0.05018372023008211</v>
       </c>
       <c r="F22" t="n">
         <v>0.01001961129481471</v>
@@ -1428,18 +1428,18 @@
         <v>4.151740358054735</v>
       </c>
       <c r="I22" t="n">
-        <v>0.009994987782453632</v>
+        <v>0.00999498778245363</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>0.01000937894310006</v>
       </c>
       <c r="L22" t="n">
-        <v>11.45960852242865</v>
+        <v>11.45960852242864</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>0.6192039056557925</v>
+        <v>0.6192039056557924</v>
       </c>
       <c r="O22" t="n">
         <v>1.484218119772404</v>
@@ -1452,32 +1452,32 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.47551860405383</v>
+        <v>64.47551860405385</v>
       </c>
       <c r="C23" t="n">
-        <v>0.009991946622211499</v>
+        <v>0.009991946622211501</v>
       </c>
       <c r="D23" t="n">
         <v>0.04991868400850581</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04996054408240842</v>
+        <v>0.04996054408240844</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009975052257746263</v>
+        <v>0.009975052257746265</v>
       </c>
       <c r="G23" t="n">
-        <v>17.19682015461599</v>
+        <v>17.196820154616</v>
       </c>
       <c r="H23" t="n">
         <v>3.949203755793417</v>
       </c>
       <c r="I23" t="n">
-        <v>0.009950538250631226</v>
+        <v>0.009950538250631228</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>0.009981068444352984</v>
+        <v>0.009981068444352986</v>
       </c>
       <c r="L23" t="n">
         <v>12.23089028001901</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>65.45762158636441</v>
+        <v>65.4576215863644</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06986142860551398</v>
+        <v>0.06986142860551396</v>
       </c>
       <c r="D24" t="n">
         <v>0.01000397199140812</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>0.03000455435892915</v>
+        <v>0.03000455435892914</v>
       </c>
       <c r="O24" t="inlineStr"/>
     </row>
@@ -1542,16 +1542,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.7751120121118</v>
+        <v>65.77511201211182</v>
       </c>
       <c r="C25" t="n">
-        <v>0.160003073711306</v>
+        <v>0.1600030737113061</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5603377880686873</v>
+        <v>0.5603377880686874</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0100133571673989</v>
+        <v>0.01001335716739891</v>
       </c>
       <c r="F25" t="n">
         <v>14.4803416647125</v>
@@ -1566,7 +1566,7 @@
         <v>0.4102428929467355</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03006351251592231</v>
+        <v>0.03006351251592232</v>
       </c>
       <c r="K25" t="n">
         <v>0.010003262720111</v>
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.528530419338</v>
+        <v>65.52853041933798</v>
       </c>
       <c r="C26" t="n">
         <v>0.1600400087768393</v>
       </c>
       <c r="D26" t="n">
-        <v>0.009999726535211268</v>
+        <v>0.009999726535211266</v>
       </c>
       <c r="E26" t="n">
         <v>0.02997708646036126</v>
@@ -1605,7 +1605,7 @@
         <v>1.089064649060199</v>
       </c>
       <c r="H26" t="n">
-        <v>4.951147723234492</v>
+        <v>4.951147723234491</v>
       </c>
       <c r="I26" t="n">
         <v>0.009992565966930647</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>0.02999182111443921</v>
+        <v>0.0299918211144392</v>
       </c>
       <c r="O26" t="inlineStr"/>
     </row>
@@ -1673,35 +1673,35 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.94306367862247</v>
+        <v>65.94306367862248</v>
       </c>
       <c r="C28" t="n">
-        <v>0.009981325069616326</v>
+        <v>0.009981325069616328</v>
       </c>
       <c r="D28" t="n">
-        <v>0.009950300497479758</v>
+        <v>0.009950300497479759</v>
       </c>
       <c r="E28" t="n">
-        <v>0.009973959574811928</v>
+        <v>0.00997395957481193</v>
       </c>
       <c r="F28" t="n">
         <v>11.17167994450462</v>
       </c>
       <c r="G28" t="n">
-        <v>8.004066867743763</v>
+        <v>8.004066867743765</v>
       </c>
       <c r="H28" t="n">
-        <v>4.992013822548316</v>
+        <v>4.992013822548317</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00995020105974855</v>
+        <v>0.009950201059748552</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>0.009997227293644847</v>
       </c>
       <c r="L28" t="n">
-        <v>8.612347889785081</v>
+        <v>8.612347889785083</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
@@ -1721,16 +1721,16 @@
         <v>64.23492866030746</v>
       </c>
       <c r="C29" t="n">
-        <v>0.009998593838613666</v>
+        <v>0.009998593838613668</v>
       </c>
       <c r="D29" t="n">
-        <v>0.009962649827579309</v>
+        <v>0.009962649827579311</v>
       </c>
       <c r="E29" t="n">
-        <v>0.009992044747231662</v>
+        <v>0.009992044747231664</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00996794505811128</v>
+        <v>0.009967945058111282</v>
       </c>
       <c r="G29" t="n">
         <v>15.10376773526291</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0.009996420825223151</v>
+        <v>0.009996420825223153</v>
       </c>
       <c r="L29" t="n">
         <v>15.26731022213954</v>
@@ -1988,35 +1988,35 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66.24134912561102</v>
+        <v>66.24134912561101</v>
       </c>
       <c r="C35" t="n">
         <v>0.01000277318044753</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00995042036000005</v>
+        <v>0.009950420360000049</v>
       </c>
       <c r="E35" t="n">
-        <v>0.009974079722332321</v>
+        <v>0.009974079722332319</v>
       </c>
       <c r="F35" t="n">
         <v>10.98715642867092</v>
       </c>
       <c r="G35" t="n">
-        <v>7.96247493525259</v>
+        <v>7.962474935252589</v>
       </c>
       <c r="H35" t="n">
-        <v>4.992073956949107</v>
+        <v>4.992073956949106</v>
       </c>
       <c r="I35" t="n">
-        <v>0.009950320921071005</v>
+        <v>0.009950320921071003</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>0.009997347721450988</v>
+        <v>0.009997347721450986</v>
       </c>
       <c r="L35" t="n">
-        <v>8.549663409394054</v>
+        <v>8.549663409394052</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
@@ -2033,32 +2033,32 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>67.12744217831707</v>
+        <v>67.12744217831708</v>
       </c>
       <c r="C36" t="n">
         <v>0.2100800312294189</v>
       </c>
       <c r="D36" t="n">
-        <v>0.430032662850685</v>
+        <v>0.4300326628506851</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5003212676023872</v>
+        <v>0.5003212676023873</v>
       </c>
       <c r="F36" t="n">
         <v>12.53759032537948</v>
       </c>
       <c r="G36" t="n">
-        <v>1.182888126359314</v>
+        <v>1.182888126359315</v>
       </c>
       <c r="H36" t="n">
-        <v>2.054618914639518</v>
+        <v>2.054618914639519</v>
       </c>
       <c r="I36" t="n">
-        <v>0.009991756250588086</v>
+        <v>0.009991756250588088</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>0.009997335979465184</v>
+        <v>0.009997335979465186</v>
       </c>
       <c r="L36" t="n">
         <v>15.90703182633428</v>
@@ -2076,37 +2076,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.27233987132323</v>
+        <v>66.27233987132324</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
         <v>0.009955075623686206</v>
       </c>
       <c r="E37" t="n">
-        <v>0.009978746054954893</v>
+        <v>0.009978746054954895</v>
       </c>
       <c r="F37" t="n">
         <v>10.99229672510926</v>
       </c>
       <c r="G37" t="n">
-        <v>7.997481037387566</v>
+        <v>7.997481037387567</v>
       </c>
       <c r="H37" t="n">
-        <v>4.9773637123036</v>
+        <v>4.977363712303601</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01004547592130992</v>
+        <v>0.01004547592130993</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>0.01000202493991229</v>
       </c>
       <c r="L37" t="n">
-        <v>8.511784933980094</v>
+        <v>8.511784933980096</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>1.188768710371882</v>
+        <v>1.188768710371883</v>
       </c>
       <c r="O37" t="n">
         <v>0.01998368698450126</v>
@@ -2122,10 +2122,10 @@
         <v>65.61632871285677</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0698246351844051</v>
+        <v>0.06982463518440511</v>
       </c>
       <c r="D38" t="n">
-        <v>0.569280583075509</v>
+        <v>0.5692805830755091</v>
       </c>
       <c r="E38" t="n">
         <v>0.3196325125160454</v>
@@ -2134,7 +2134,7 @@
         <v>11.78043045901867</v>
       </c>
       <c r="G38" t="n">
-        <v>0.009988760494670072</v>
+        <v>0.009988760494670073</v>
       </c>
       <c r="H38" t="n">
         <v>6.319427872710026</v>
@@ -2143,7 +2143,7 @@
         <v>0.01002064158567547</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04993932651380654</v>
+        <v>0.04993932651380655</v>
       </c>
       <c r="K38" t="n">
         <v>0.00998611812420365</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.30006342458036</v>
+        <v>68.30006342458034</v>
       </c>
       <c r="C40" t="n">
         <v>0.2101366472076583</v>
@@ -2216,13 +2216,13 @@
         <v>0.01000329041447043</v>
       </c>
       <c r="E40" t="n">
-        <v>1.992126202225554</v>
+        <v>1.992126202225553</v>
       </c>
       <c r="F40" t="n">
         <v>12.54742360676208</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9399421137967453</v>
+        <v>0.9399421137967452</v>
       </c>
       <c r="H40" t="n">
         <v>1.98213904482712</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>0.07999730626339463</v>
+        <v>0.07999730626339462</v>
       </c>
       <c r="L40" t="n">
         <v>13.89821269596976</v>
@@ -2250,16 +2250,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.844844301726</v>
+        <v>63.84484430172601</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08997263121262492</v>
+        <v>0.08997263121262493</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6599518313879833</v>
+        <v>0.6599518313879834</v>
       </c>
       <c r="E41" t="n">
-        <v>0.269804728866136</v>
+        <v>0.2698047288661361</v>
       </c>
       <c r="F41" t="n">
         <v>12.24378671656842</v>
@@ -2271,19 +2271,19 @@
         <v>0.01997429887659672</v>
       </c>
       <c r="I41" t="n">
-        <v>0.009996329572073302</v>
+        <v>0.009996329572073304</v>
       </c>
       <c r="J41" t="n">
-        <v>0.03011496813566301</v>
+        <v>0.03011496813566302</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01000322081524495</v>
+        <v>0.01000322081524496</v>
       </c>
       <c r="L41" t="n">
         <v>14.78232064916732</v>
       </c>
       <c r="M41" t="n">
-        <v>7.99920682643584</v>
+        <v>7.999206826435841</v>
       </c>
       <c r="N41" t="n">
         <v>0.03001846411228466</v>
@@ -2393,7 +2393,7 @@
         <v>0.01000546614816952</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05004909928550293</v>
+        <v>0.05004909928550291</v>
       </c>
       <c r="E44" t="n">
         <v>0.04977768902820305</v>
@@ -2402,7 +2402,7 @@
         <v>0.01004515714222676</v>
       </c>
       <c r="G44" t="n">
-        <v>14.66782510951246</v>
+        <v>14.66782510951245</v>
       </c>
       <c r="H44" t="n">
         <v>1.499939928541878</v>
@@ -2412,14 +2412,14 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>0.009995229154176674</v>
+        <v>0.009995229154176673</v>
       </c>
       <c r="L44" t="n">
         <v>15.35451794489465</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>0.7603815390851949</v>
+        <v>0.7603815390851948</v>
       </c>
       <c r="O44" t="n">
         <v>1.162296897908778</v>
@@ -2522,16 +2522,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>67.4732697973584</v>
+        <v>67.47326979735843</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2000533559184309</v>
+        <v>0.200053355918431</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5104432769063068</v>
+        <v>0.510443276906307</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5208786950698983</v>
+        <v>0.5208786950698984</v>
       </c>
       <c r="F47" t="n">
         <v>12.63946364242858</v>
@@ -2543,18 +2543,18 @@
         <v>1.986862261434178</v>
       </c>
       <c r="I47" t="n">
-        <v>0.009998329173342825</v>
+        <v>0.009998329173342828</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>0.01000391257275851</v>
+        <v>0.01000391257275852</v>
       </c>
       <c r="L47" t="n">
-        <v>15.59914610146204</v>
+        <v>15.59914610146205</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>0.03002531376259781</v>
+        <v>0.03002531376259782</v>
       </c>
       <c r="O47" t="inlineStr"/>
     </row>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>66.05551231342315</v>
+        <v>66.05551231342316</v>
       </c>
       <c r="C48" t="n">
         <v>0.09999903397625776</v>
@@ -2574,7 +2574,7 @@
         <v>0.5096111917433142</v>
       </c>
       <c r="E48" t="n">
-        <v>0.319841052394609</v>
+        <v>0.3198410523946091</v>
       </c>
       <c r="F48" t="n">
         <v>11.98938006532181</v>
@@ -2583,13 +2583,13 @@
         <v>0.01000039519012277</v>
       </c>
       <c r="H48" t="n">
-        <v>6.299546815415996</v>
+        <v>6.299546815415997</v>
       </c>
       <c r="I48" t="n">
-        <v>0.009953010613401</v>
+        <v>0.009953010613401002</v>
       </c>
       <c r="J48" t="n">
-        <v>0.03994069706058411</v>
+        <v>0.03994069706058412</v>
       </c>
       <c r="K48" t="n">
         <v>0.009991724927124593</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>0.0299680851542464</v>
+        <v>0.02996808515424641</v>
       </c>
       <c r="O48" t="inlineStr"/>
     </row>
@@ -2655,16 +2655,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>65.83125905563826</v>
+        <v>65.83125905563824</v>
       </c>
       <c r="C50" t="n">
-        <v>0.009993222988796966</v>
+        <v>0.009993222988796964</v>
       </c>
       <c r="D50" t="n">
         <v>0.01000780849030264</v>
       </c>
       <c r="E50" t="n">
-        <v>0.009986269170978123</v>
+        <v>0.009986269170978121</v>
       </c>
       <c r="F50" t="n">
         <v>0.01001833205137459</v>
@@ -2673,14 +2673,14 @@
         <v>14.80408609843263</v>
       </c>
       <c r="H50" t="n">
-        <v>2.504171388866965</v>
+        <v>2.504171388866964</v>
       </c>
       <c r="I50" t="n">
-        <v>0.009993711682794816</v>
+        <v>0.009993711682794814</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>0.009991827671095584</v>
+        <v>0.009991827671095582</v>
       </c>
       <c r="L50" t="n">
         <v>14.96784763227075</v>
@@ -2700,16 +2700,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>65.84171406550078</v>
+        <v>65.8417140655008</v>
       </c>
       <c r="C51" t="n">
-        <v>0.009994810065307504</v>
+        <v>0.009994810065307506</v>
       </c>
       <c r="D51" t="n">
         <v>0.01000939788321369</v>
       </c>
       <c r="E51" t="n">
-        <v>0.009987855143116134</v>
+        <v>0.009987855143116136</v>
       </c>
       <c r="F51" t="n">
         <v>0.01001992311558794</v>
@@ -2718,7 +2718,7 @@
         <v>18.50804651689579</v>
       </c>
       <c r="H51" t="n">
-        <v>4.807427916850763</v>
+        <v>4.807427916850764</v>
       </c>
       <c r="I51" t="n">
         <v>0.4301548249459107</v>
@@ -2728,14 +2728,14 @@
         <v>0.009993414526008351</v>
       </c>
       <c r="L51" t="n">
-        <v>8.693054650944037</v>
+        <v>8.693054650944038</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>0.9501057890198465</v>
+        <v>0.9501057890198468</v>
       </c>
       <c r="O51" t="n">
-        <v>0.7194908351096263</v>
+        <v>0.7194908351096264</v>
       </c>
     </row>
     <row r="52">
@@ -2757,10 +2757,10 @@
         <v>1.858406474175475</v>
       </c>
       <c r="F52" t="n">
-        <v>15.91642348708445</v>
+        <v>15.91642348708444</v>
       </c>
       <c r="G52" t="n">
-        <v>4.00210361030317</v>
+        <v>4.002103610303169</v>
       </c>
       <c r="H52" t="n">
         <v>0.02004974761172046</v>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0.009996338250895586</v>
+        <v>0.009996338250895584</v>
       </c>
       <c r="L52" t="n">
         <v>9.192786825898857</v>
@@ -2835,16 +2835,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>67.7140705632541</v>
+        <v>67.71407056325411</v>
       </c>
       <c r="C54" t="n">
-        <v>0.199873689687438</v>
+        <v>0.1998736896874381</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5099848521062009</v>
+        <v>0.5099848521062011</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5103058323222104</v>
+        <v>0.5103058323222106</v>
       </c>
       <c r="F54" t="n">
         <v>12.62811224677725</v>
@@ -2856,18 +2856,18 @@
         <v>1.985077877201407</v>
       </c>
       <c r="I54" t="n">
-        <v>0.009989349758273511</v>
+        <v>0.009989349758273515</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0.009994928143285295</v>
+        <v>0.009994928143285297</v>
       </c>
       <c r="L54" t="n">
         <v>15.37309396459299</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>0.0299983482816473</v>
+        <v>0.02999834828164731</v>
       </c>
       <c r="O54" t="inlineStr"/>
     </row>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>67.3285743782467</v>
+        <v>67.32857437824669</v>
       </c>
       <c r="C55" t="n">
         <v>0.2406314658232915</v>
@@ -2899,14 +2899,14 @@
         <v>1.500070390340177</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2797496771199931</v>
+        <v>0.279749677119993</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>0.01000450211725174</v>
       </c>
       <c r="L55" t="n">
-        <v>12.96638426360492</v>
+        <v>12.96638426360491</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>66.80817634603986</v>
+        <v>66.80817634603984</v>
       </c>
       <c r="C56" t="n">
         <v>0.1500755117292402</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>0.05021170700324084</v>
+        <v>0.05021170700324083</v>
       </c>
       <c r="O56" t="inlineStr"/>
     </row>
@@ -2975,10 +2975,10 @@
         <v>0.01001743595795801</v>
       </c>
       <c r="E57" t="n">
-        <v>0.009995875917903243</v>
+        <v>0.009995875917903244</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01002796964264932</v>
+        <v>0.01002796964264933</v>
       </c>
       <c r="G57" t="n">
         <v>18.52290945500755</v>
@@ -2994,14 +2994,14 @@
         <v>0.01000143976527332</v>
       </c>
       <c r="L57" t="n">
-        <v>8.803361471470099</v>
+        <v>8.803361471470101</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
         <v>1.021829130386957</v>
       </c>
       <c r="O57" t="n">
-        <v>0.7099977343719659</v>
+        <v>0.709997734371966</v>
       </c>
     </row>
     <row r="58">
@@ -3011,42 +3011,42 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>65.84952619704264</v>
+        <v>65.84952619704266</v>
       </c>
       <c r="C58" t="n">
-        <v>0.009999695006078379</v>
+        <v>0.00999969500607838</v>
       </c>
       <c r="D58" t="n">
-        <v>0.009951438761569177</v>
+        <v>0.009951438761569179</v>
       </c>
       <c r="E58" t="n">
-        <v>0.009978937122513062</v>
+        <v>0.009978937122513064</v>
       </c>
       <c r="F58" t="n">
-        <v>0.009961903047897454</v>
+        <v>0.009961903047897458</v>
       </c>
       <c r="G58" t="n">
-        <v>14.92515515811982</v>
+        <v>14.92515515811983</v>
       </c>
       <c r="H58" t="n">
-        <v>3.14182881759791</v>
+        <v>3.141828817597911</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01002614833176977</v>
+        <v>0.01002614833176978</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>0.00998409297810377</v>
+        <v>0.009984092978103772</v>
       </c>
       <c r="L58" t="n">
         <v>15.29412052954063</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>0.02998296012428919</v>
+        <v>0.0299829601242892</v>
       </c>
       <c r="O58" t="n">
-        <v>0.6994841223267534</v>
+        <v>0.6994841223267535</v>
       </c>
     </row>
     <row r="59">
@@ -3071,7 +3071,7 @@
         <v>12.67146967870596</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9404040093208469</v>
+        <v>0.9404040093208468</v>
       </c>
       <c r="H59" t="n">
         <v>1.971858186435087</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0.08008927442950717</v>
+        <v>0.08008927442950715</v>
       </c>
       <c r="L59" t="n">
         <v>13.82612615037523</v>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>67.8384478670142</v>
+        <v>67.83844786701418</v>
       </c>
       <c r="C60" t="n">
         <v>0.009985252722557465</v>
@@ -3111,13 +3111,13 @@
         <v>0.01001358107078071</v>
       </c>
       <c r="F60" t="n">
-        <v>8.132912360700816</v>
+        <v>8.132912360700814</v>
       </c>
       <c r="G60" t="n">
         <v>11.98817498060999</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01994182413473876</v>
+        <v>0.01994182413473875</v>
       </c>
       <c r="I60" t="n">
         <v>0.01003992781422659</v>
@@ -3144,41 +3144,41 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>67.33747432613106</v>
+        <v>67.33747432613107</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08992989713131358</v>
+        <v>0.08992989713131359</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6301956389831626</v>
+        <v>0.6301956389831627</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3701139632793672</v>
+        <v>0.3701139632793673</v>
       </c>
       <c r="F61" t="n">
         <v>12.29884731266511</v>
       </c>
       <c r="G61" t="n">
-        <v>0.009999876841577729</v>
+        <v>0.009999876841577731</v>
       </c>
       <c r="H61" t="n">
         <v>3.975975814196533</v>
       </c>
       <c r="I61" t="n">
-        <v>0.009965784929985427</v>
+        <v>0.009965784929985429</v>
       </c>
       <c r="J61" t="n">
-        <v>0.04010641455309826</v>
+        <v>0.04010641455309827</v>
       </c>
       <c r="K61" t="n">
-        <v>0.009996361903495629</v>
+        <v>0.009996361903495631</v>
       </c>
       <c r="L61" t="n">
         <v>15.19740319212054</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>0.02999141726473989</v>
+        <v>0.0299914172647399</v>
       </c>
       <c r="O61" t="inlineStr"/>
     </row>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>67.95491555908357</v>
+        <v>67.95491555908356</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
@@ -3255,10 +3255,10 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0.009991849947976444</v>
+        <v>0.009991849947976443</v>
       </c>
       <c r="L63" t="n">
-        <v>7.477087343640807</v>
+        <v>7.477087343640805</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
@@ -3375,16 +3375,16 @@
         <v>0.01000896459138702</v>
       </c>
       <c r="F66" t="n">
-        <v>14.34010410350469</v>
+        <v>14.3401041035047</v>
       </c>
       <c r="G66" t="n">
         <v>0.01000656233171714</v>
       </c>
       <c r="H66" t="n">
-        <v>3.007077879966456</v>
+        <v>3.007077879966457</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9670379217921613</v>
+        <v>0.9670379217921614</v>
       </c>
       <c r="J66" t="n">
         <v>0.03010149204950684</v>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>0.05025382527896678</v>
+        <v>0.0502538252789668</v>
       </c>
       <c r="O66" t="inlineStr"/>
     </row>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>67.73290520155776</v>
+        <v>67.73290520155777</v>
       </c>
       <c r="C68" t="n">
         <v>0.1100062676237548</v>
@@ -3460,26 +3460,26 @@
         <v>0.009965613749415981</v>
       </c>
       <c r="E68" t="n">
-        <v>0.009989309237448696</v>
+        <v>0.009989309237448698</v>
       </c>
       <c r="F68" t="n">
-        <v>9.200767357928264</v>
+        <v>9.200767357928266</v>
       </c>
       <c r="G68" t="n">
-        <v>3.705490423911689</v>
+        <v>3.70549042391169</v>
       </c>
       <c r="H68" t="n">
         <v>1.996465798397449</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5000876195978449</v>
+        <v>0.500087619597845</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0.009996090301383606</v>
+        <v>0.009996090301383608</v>
       </c>
       <c r="L68" t="n">
-        <v>16.66428589019043</v>
+        <v>16.66428589019044</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>68.69063437060636</v>
+        <v>68.69063437060635</v>
       </c>
       <c r="C69" t="n">
         <v>0.1899798837497783</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02001488373775916</v>
+        <v>0.02001488373775915</v>
       </c>
       <c r="E69" t="n">
         <v>0.4898123820699337</v>
@@ -3511,7 +3511,7 @@
         <v>12.56618909624336</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9601132267344487</v>
+        <v>0.9601132267344485</v>
       </c>
       <c r="H69" t="n">
         <v>1.489968159862035</v>
@@ -3539,13 +3539,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>68.52605051176322</v>
+        <v>68.52605051176323</v>
       </c>
       <c r="C70" t="n">
         <v>0.1998977619622517</v>
       </c>
       <c r="D70" t="n">
-        <v>0.009983463878065833</v>
+        <v>0.009983463878065835</v>
       </c>
       <c r="E70" t="n">
         <v>0.5103672922484963</v>
@@ -3554,24 +3554,24 @@
         <v>12.53608030613882</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9493645967973091</v>
+        <v>0.9493645967973094</v>
       </c>
       <c r="H70" t="n">
-        <v>1.985316954892228</v>
+        <v>1.985316954892229</v>
       </c>
       <c r="I70" t="n">
-        <v>0.009990552849950896</v>
+        <v>0.009990552849950898</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0.0800693508923335</v>
+        <v>0.08006935089233352</v>
       </c>
       <c r="L70" t="n">
-        <v>15.1628772473715</v>
+        <v>15.16287724737151</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>0.03000196120581416</v>
+        <v>0.03000196120581417</v>
       </c>
       <c r="O70" t="inlineStr"/>
     </row>
@@ -3781,16 +3781,16 @@
         <v>5.228248537164657</v>
       </c>
       <c r="I75" t="n">
-        <v>0.410019248570604</v>
+        <v>0.4100192485706041</v>
       </c>
       <c r="J75" t="n">
         <v>0.1199720345975792</v>
       </c>
       <c r="K75" t="n">
-        <v>0.009992416318094154</v>
+        <v>0.009992416318094156</v>
       </c>
       <c r="L75" t="n">
-        <v>11.43865249923843</v>
+        <v>11.43865249923844</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>69.16499938341069</v>
+        <v>69.16499938341067</v>
       </c>
       <c r="C76" t="n">
         <v>0.2000842827255823</v>
@@ -3820,7 +3820,7 @@
         <v>12.61597192479645</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9405362949290283</v>
+        <v>0.9405362949290282</v>
       </c>
       <c r="H76" t="n">
         <v>1.980595604153835</v>
@@ -3830,14 +3830,14 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0.08007495354394167</v>
+        <v>0.08007495354394166</v>
       </c>
       <c r="L76" t="n">
-        <v>13.76557130030091</v>
+        <v>13.7655713003009</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>0.02999773674432514</v>
+        <v>0.02999773674432513</v>
       </c>
       <c r="O76" t="inlineStr"/>
     </row>
@@ -3857,7 +3857,7 @@
         <v>0.01000293426105176</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4895917580426841</v>
+        <v>0.489591758042684</v>
       </c>
       <c r="F77" t="n">
         <v>12.56052896320654</v>
@@ -3869,14 +3869,14 @@
         <v>1.478918663500545</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3296883765072582</v>
+        <v>0.3296883765072581</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0.009998878455659525</v>
+        <v>0.009998878455659523</v>
       </c>
       <c r="L77" t="n">
-        <v>14.97996704795315</v>
+        <v>14.97996704795314</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
@@ -3891,10 +3891,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>69.31513394543236</v>
+        <v>69.31513394543235</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2198131858857968</v>
+        <v>0.2198131858857967</v>
       </c>
       <c r="D78" t="n">
         <v>0.01005419765730905</v>
@@ -3906,24 +3906,24 @@
         <v>12.62489961252183</v>
       </c>
       <c r="G78" t="n">
-        <v>0.940138360147459</v>
+        <v>0.9401383601474588</v>
       </c>
       <c r="H78" t="n">
         <v>1.981997171878427</v>
       </c>
       <c r="I78" t="n">
-        <v>0.009969031012517239</v>
+        <v>0.009969031012517237</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0.07996327481784662</v>
+        <v>0.07996327481784661</v>
       </c>
       <c r="L78" t="n">
         <v>13.77531250158632</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
-        <v>0.03001896463130191</v>
+        <v>0.0300189646313019</v>
       </c>
       <c r="O78" t="inlineStr"/>
     </row>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>68.47703560115676</v>
+        <v>68.47703560115674</v>
       </c>
       <c r="C81" t="n">
         <v>0.01000464364130936</v>
@@ -4031,10 +4031,10 @@
         <v>0.01001635150992811</v>
       </c>
       <c r="E81" t="n">
-        <v>0.009989966800205771</v>
+        <v>0.009989966800205769</v>
       </c>
       <c r="F81" t="n">
-        <v>8.838671484001239</v>
+        <v>8.838671484001237</v>
       </c>
       <c r="G81" t="n">
         <v>10.80587833321157</v>
@@ -4047,17 +4047,17 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0.009997163475111542</v>
+        <v>0.00999716347511154</v>
       </c>
       <c r="L81" t="n">
         <v>9.238355775384557</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>0.430205078283015</v>
+        <v>0.4302050782830149</v>
       </c>
       <c r="O81" t="n">
-        <v>0.5698321899505527</v>
+        <v>0.5698321899505526</v>
       </c>
     </row>
     <row r="82">
@@ -4108,19 +4108,19 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>66.6970369243177</v>
+        <v>66.69703692431771</v>
       </c>
       <c r="C83" t="n">
-        <v>0.009995515409504555</v>
+        <v>0.009995515409504557</v>
       </c>
       <c r="D83" t="n">
-        <v>0.009947279334773941</v>
+        <v>0.009947279334773943</v>
       </c>
       <c r="E83" t="n">
-        <v>0.009974766202161761</v>
+        <v>0.009974766202161763</v>
       </c>
       <c r="F83" t="n">
-        <v>0.009957739247319294</v>
+        <v>0.009957739247319295</v>
       </c>
       <c r="G83" t="n">
         <v>14.61236376905502</v>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0.009996094813448477</v>
+        <v>0.009996094813448479</v>
       </c>
       <c r="L83" t="n">
         <v>15.39033021060015</v>
@@ -4201,32 +4201,32 @@
         <v>68.37935496374324</v>
       </c>
       <c r="C85" t="n">
-        <v>0.009997237622465535</v>
+        <v>0.009997237622465537</v>
       </c>
       <c r="D85" t="n">
-        <v>0.009987504411339424</v>
+        <v>0.009987504411339426</v>
       </c>
       <c r="E85" t="n">
         <v>0.01001125194934424</v>
       </c>
       <c r="F85" t="n">
-        <v>7.738207620776502</v>
+        <v>7.738207620776503</v>
       </c>
       <c r="G85" t="n">
         <v>11.9254596431487</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9799040855637873</v>
+        <v>0.9799040855637875</v>
       </c>
       <c r="I85" t="n">
-        <v>0.009987404601813134</v>
+        <v>0.009987404601813136</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>0.01000148915182284</v>
       </c>
       <c r="L85" t="n">
-        <v>9.947008656592077</v>
+        <v>9.947008656592079</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
@@ -4252,23 +4252,23 @@
         <v>0.00995050402883804</v>
       </c>
       <c r="E86" t="n">
-        <v>0.009972188508212756</v>
+        <v>0.009972188508212758</v>
       </c>
       <c r="F86" t="n">
         <v>14.07984077280327</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9293897383652532</v>
+        <v>0.9293897383652534</v>
       </c>
       <c r="H86" t="n">
         <v>1.995969172481619</v>
       </c>
       <c r="I86" t="n">
-        <v>0.009957569596877767</v>
+        <v>0.009957569596877769</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0.0799716139247427</v>
+        <v>0.07997161392474271</v>
       </c>
       <c r="L86" t="n">
         <v>13.84460936253038</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>66.54379708578651</v>
+        <v>66.54379708578652</v>
       </c>
       <c r="C91" t="n">
         <v>0.04009041367009238</v>
       </c>
       <c r="D91" t="n">
-        <v>0.009976224313886329</v>
+        <v>0.009976224313886331</v>
       </c>
       <c r="E91" t="n">
         <v>0.01000565928522586</v>
       </c>
       <c r="F91" t="n">
-        <v>0.009981526759369702</v>
+        <v>0.009981526759369704</v>
       </c>
       <c r="G91" t="n">
         <v>18.77855187859598</v>
       </c>
       <c r="H91" t="n">
-        <v>6.006999712162045</v>
+        <v>6.006999712162046</v>
       </c>
       <c r="I91" t="n">
         <v>0.01004349584826735</v>
@@ -4490,7 +4490,7 @@
         <v>0.01001004132578873</v>
       </c>
       <c r="L91" t="n">
-        <v>8.000778879392293</v>
+        <v>8.000778879392294</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
@@ -4553,19 +4553,19 @@
         <v>69.41763828753432</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1698577127881613</v>
+        <v>0.1698577127881614</v>
       </c>
       <c r="D93" t="n">
-        <v>0.009996101721413088</v>
+        <v>0.009996101721413089</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7791688775766046</v>
+        <v>0.7791688775766047</v>
       </c>
       <c r="F93" t="n">
         <v>12.55194944945747</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9495090164731849</v>
+        <v>0.9495090164731851</v>
       </c>
       <c r="H93" t="n">
         <v>1.987830123164986</v>
@@ -4578,7 +4578,7 @@
         <v>0.07983596689096174</v>
       </c>
       <c r="L93" t="n">
-        <v>14.01421993302638</v>
+        <v>14.01421993302639</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
@@ -4645,7 +4645,7 @@
         <v>0.1102267966354227</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0900583068718287</v>
+        <v>0.09005830687182868</v>
       </c>
       <c r="F95" t="n">
         <v>0.009966668910709284</v>
@@ -4671,7 +4671,7 @@
         <v>0.1102060162160511</v>
       </c>
       <c r="O95" t="n">
-        <v>0.08000445514477814</v>
+        <v>0.08000445514477812</v>
       </c>
     </row>
     <row r="96">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>69.0045165619009</v>
+        <v>69.00451656190091</v>
       </c>
       <c r="C99" t="n">
         <v>0.2202673584429065</v>
       </c>
       <c r="D99" t="n">
-        <v>0.009977156135111687</v>
+        <v>0.009977156135111688</v>
       </c>
       <c r="E99" t="n">
         <v>0.01000087906776237</v>
@@ -4837,16 +4837,16 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0.009991126385693366</v>
+        <v>0.009991126385693367</v>
       </c>
       <c r="L99" t="n">
-        <v>15.31951997341359</v>
+        <v>15.3195199734136</v>
       </c>
       <c r="M99" t="n">
-        <v>0.5008010076483306</v>
+        <v>0.5008010076483307</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02997729760725854</v>
+        <v>0.02997729760725855</v>
       </c>
       <c r="O99" t="n">
         <v>0.02999940387653135</v>
@@ -4865,7 +4865,7 @@
         <v>0.2100154153121817</v>
       </c>
       <c r="D100" t="n">
-        <v>0.009991875071679354</v>
+        <v>0.009991875071679356</v>
       </c>
       <c r="E100" t="n">
         <v>0.4996710056439091</v>
@@ -4874,24 +4874,24 @@
         <v>12.54664211112929</v>
       </c>
       <c r="G100" t="n">
-        <v>0.93959532215157</v>
+        <v>0.9395953221515702</v>
       </c>
       <c r="H100" t="n">
         <v>1.986989609343204</v>
       </c>
       <c r="I100" t="n">
-        <v>0.009998970016112198</v>
+        <v>0.0099989700161122</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0.07996951009503662</v>
+        <v>0.07996951009503664</v>
       </c>
       <c r="L100" t="n">
         <v>13.79604741977479</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>0.02997865047053227</v>
+        <v>0.02997865047053228</v>
       </c>
       <c r="O100" t="inlineStr"/>
     </row>
@@ -4902,39 +4902,39 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>69.93369457644314</v>
+        <v>69.93369457644317</v>
       </c>
       <c r="C101" t="n">
         <v>0.22940474937146</v>
       </c>
       <c r="D101" t="n">
-        <v>0.009997964524797993</v>
+        <v>0.009997964524797997</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5212295456900654</v>
+        <v>0.5212295456900656</v>
       </c>
       <c r="F101" t="n">
         <v>12.46059982222548</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9496859603118111</v>
+        <v>0.9496859603118114</v>
       </c>
       <c r="H101" t="n">
-        <v>1.970911860707748</v>
+        <v>1.970911860707749</v>
       </c>
       <c r="I101" t="n">
-        <v>0.01000506379317716</v>
+        <v>0.01000506379317717</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.08001824675148508</v>
+        <v>0.0800182467514851</v>
       </c>
       <c r="L101" t="n">
-        <v>13.8044552895072</v>
+        <v>13.80445528950721</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>0.02999692067360134</v>
+        <v>0.02999692067360135</v>
       </c>
       <c r="O101" t="inlineStr"/>
     </row>
@@ -4954,7 +4954,7 @@
         <v>0.0100478539367606</v>
       </c>
       <c r="E102" t="n">
-        <v>0.009979660443901257</v>
+        <v>0.009979660443901259</v>
       </c>
       <c r="F102" t="n">
         <v>0.009962625134573943</v>
@@ -4973,7 +4973,7 @@
         <v>0.01000099952033347</v>
       </c>
       <c r="L102" t="n">
-        <v>7.000903530552824</v>
+        <v>7.000903530552825</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>69.98174308390476</v>
+        <v>69.98174308390477</v>
       </c>
       <c r="C103" t="n">
         <v>0.1898737394056427</v>
       </c>
       <c r="D103" t="n">
-        <v>0.009990458945683496</v>
+        <v>0.009990458945683497</v>
       </c>
       <c r="E103" t="n">
         <v>0.5001058566022333</v>
@@ -5005,13 +5005,13 @@
         <v>12.63848229108447</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9796191429391229</v>
+        <v>0.979619142939123</v>
       </c>
       <c r="H103" t="n">
         <v>1.952156554332381</v>
       </c>
       <c r="I103" t="n">
-        <v>0.009997552884565813</v>
+        <v>0.009997552884565815</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
-        <v>0.02997440166378203</v>
+        <v>0.02997440166378204</v>
       </c>
       <c r="O103" t="inlineStr"/>
     </row>
@@ -5076,16 +5076,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>69.85348881109618</v>
+        <v>69.85348881109617</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2102483957297689</v>
+        <v>0.2102483957297688</v>
       </c>
       <c r="D105" t="n">
-        <v>0.009972149612554047</v>
+        <v>0.009972149612554045</v>
       </c>
       <c r="E105" t="n">
-        <v>0.009993881262726574</v>
+        <v>0.009993881262726573</v>
       </c>
       <c r="F105" t="n">
         <v>14.01702219282187</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
-        <v>0.03001645181005712</v>
+        <v>0.03001645181005711</v>
       </c>
       <c r="O105" t="inlineStr"/>
     </row>
@@ -5119,13 +5119,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>69.96149682491466</v>
+        <v>69.96149682491468</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2098396006906944</v>
+        <v>0.2098396006906945</v>
       </c>
       <c r="D106" t="n">
-        <v>0.00997323926196325</v>
+        <v>0.009973239261963252</v>
       </c>
       <c r="E106" t="n">
         <v>0.3695111336308872</v>
@@ -5134,17 +5134,17 @@
         <v>12.6166984402184</v>
       </c>
       <c r="G106" t="n">
-        <v>0.9589417139360155</v>
+        <v>0.9589417139360157</v>
       </c>
       <c r="H106" t="n">
         <v>1.983283682277268</v>
       </c>
       <c r="I106" t="n">
-        <v>0.009980320973641137</v>
+        <v>0.009980320973641139</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.07998734745300062</v>
+        <v>0.07998734745300064</v>
       </c>
       <c r="L106" t="n">
         <v>13.77031646210119</v>
@@ -5162,16 +5162,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>68.05866955601749</v>
+        <v>68.05866955601751</v>
       </c>
       <c r="C107" t="n">
         <v>0.01000988406772839</v>
       </c>
       <c r="D107" t="n">
-        <v>0.009961578653134498</v>
+        <v>0.0099615786531345</v>
       </c>
       <c r="E107" t="n">
-        <v>0.009989105033182441</v>
+        <v>0.009989105033182443</v>
       </c>
       <c r="F107" t="n">
         <v>0.009972053601913828</v>
@@ -5180,7 +5180,7 @@
         <v>16.98698801682005</v>
       </c>
       <c r="H107" t="n">
-        <v>4.801189634705157</v>
+        <v>4.801189634705158</v>
       </c>
       <c r="I107" t="n">
         <v>0.3401705792184536</v>
@@ -5190,14 +5190,14 @@
         <v>0.01001046430457156</v>
       </c>
       <c r="L107" t="n">
-        <v>8.70289900933961</v>
+        <v>8.702899009339612</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>0.3899874689447954</v>
+        <v>0.3899874689447955</v>
       </c>
       <c r="O107" t="n">
-        <v>0.6701526492938892</v>
+        <v>0.6701526492938893</v>
       </c>
     </row>
     <row r="108">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>67.99809343175356</v>
+        <v>67.99809343175357</v>
       </c>
       <c r="C109" t="n">
         <v>0.0100075802412292</v>
@@ -5261,7 +5261,7 @@
         <v>0.04997915790867001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.04982978353635484</v>
+        <v>0.04982978353635485</v>
       </c>
       <c r="F109" t="n">
         <v>0.01003938974290058</v>
@@ -5280,7 +5280,7 @@
         <v>0.01000342710697041</v>
       </c>
       <c r="L109" t="n">
-        <v>7.903643233451348</v>
+        <v>7.903643233451349</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>70.25616035409372</v>
+        <v>70.25616035409371</v>
       </c>
       <c r="C110" t="n">
         <v>0.200106399049939</v>
@@ -5309,27 +5309,27 @@
         <v>0.2998216217196999</v>
       </c>
       <c r="F110" t="n">
-        <v>12.42864123227822</v>
+        <v>12.42864123227821</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9504147660018685</v>
+        <v>0.9504147660018682</v>
       </c>
       <c r="H110" t="n">
-        <v>1.965856922351876</v>
+        <v>1.965856922351875</v>
       </c>
       <c r="I110" t="n">
-        <v>0.009979403091788457</v>
+        <v>0.009979403091788455</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.07997999108291341</v>
+        <v>0.0799799910829134</v>
       </c>
       <c r="L110" t="n">
         <v>13.7690500175029</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>0.03001697079567945</v>
+        <v>0.03001697079567944</v>
       </c>
       <c r="O110" t="inlineStr"/>
     </row>
@@ -5385,7 +5385,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>69.22666397299176</v>
+        <v>69.22666397299174</v>
       </c>
       <c r="C112" t="n">
         <v>0.02000059224016633</v>
@@ -5397,7 +5397,7 @@
         <v>0.01001792540993877</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01000802609617802</v>
+        <v>0.01000802609617801</v>
       </c>
       <c r="G112" t="n">
         <v>14.7172493763004</v>
@@ -5410,14 +5410,14 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0.009991094137575379</v>
+        <v>0.009991094137575377</v>
       </c>
       <c r="L112" t="n">
         <v>15.50589411729321</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>0.0299693124453346</v>
+        <v>0.02996931244533459</v>
       </c>
       <c r="O112" t="n">
         <v>0.4302352478757863</v>
@@ -5477,29 +5477,29 @@
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>0.009991034728306251</v>
+        <v>0.009991034728306255</v>
       </c>
       <c r="E114" t="n">
-        <v>0.01001479066043365</v>
+        <v>0.01001479066043366</v>
       </c>
       <c r="F114" t="n">
         <v>14.27670900795903</v>
       </c>
       <c r="G114" t="n">
-        <v>8.298449347136124</v>
+        <v>8.298449347136126</v>
       </c>
       <c r="H114" t="n">
-        <v>2.600315344632875</v>
+        <v>2.600315344632876</v>
       </c>
       <c r="I114" t="n">
-        <v>0.009990934883499952</v>
+        <v>0.009990934883499955</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
         <v>0.01000502441202319</v>
       </c>
       <c r="L114" t="n">
-        <v>4.297533881403892</v>
+        <v>4.297533881403893</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>0.009991870799276556</v>
+        <v>0.009991870799276558</v>
       </c>
       <c r="E115" t="n">
         <v>0.01001562871935073</v>
@@ -5532,7 +5532,7 @@
         <v>8.393333304837665</v>
       </c>
       <c r="H115" t="n">
-        <v>2.497880328302805</v>
+        <v>2.497880328302806</v>
       </c>
       <c r="I115" t="n">
         <v>0.009991770946115034</v>
@@ -5559,39 +5559,39 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>72.00136204261113</v>
+        <v>72.00136204261112</v>
       </c>
       <c r="C116" t="n">
         <v>0.02000166306737729</v>
       </c>
       <c r="D116" t="n">
-        <v>0.009995064680713102</v>
+        <v>0.0099950646807131</v>
       </c>
       <c r="E116" t="n">
-        <v>1.931553704421225</v>
+        <v>1.931553704421224</v>
       </c>
       <c r="F116" t="n">
-        <v>13.92271337876927</v>
+        <v>13.92271337876926</v>
       </c>
       <c r="G116" t="n">
-        <v>5.995737286712232</v>
+        <v>5.995737286712231</v>
       </c>
       <c r="H116" t="n">
         <v>0.02006092351558548</v>
       </c>
       <c r="I116" t="n">
-        <v>0.009996796717333795</v>
+        <v>0.009996796717333792</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
         <v>0.01000191029686134</v>
       </c>
       <c r="L116" t="n">
-        <v>5.998637586068398</v>
+        <v>5.998637586068396</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.02998802428241149</v>
+        <v>0.02998802428241148</v>
       </c>
       <c r="O116" t="n">
         <v>0.04995161885748074</v>
@@ -5604,19 +5604,19 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>71.54796215530622</v>
+        <v>71.54796215530624</v>
       </c>
       <c r="C117" t="n">
-        <v>0.05997736447790501</v>
+        <v>0.05997736447790502</v>
       </c>
       <c r="D117" t="n">
         <v>2.092554507469775</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3198984191046366</v>
+        <v>0.3198984191046367</v>
       </c>
       <c r="F117" t="n">
-        <v>16.39357555169971</v>
+        <v>16.39357555169972</v>
       </c>
       <c r="G117" t="n">
         <v>5.145043287686129</v>
@@ -5629,14 +5629,14 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0.01000665418406876</v>
+        <v>0.01000665418406877</v>
       </c>
       <c r="L117" t="n">
         <v>2.02991569749243</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.8802069983700072</v>
+        <v>0.8802069983700074</v>
       </c>
       <c r="O117" t="inlineStr"/>
     </row>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>70.31416022430211</v>
+        <v>70.31416022430213</v>
       </c>
       <c r="C118" t="n">
         <v>0.189951638692842</v>
@@ -5662,7 +5662,7 @@
         <v>12.57207252109177</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9902398170750646</v>
+        <v>0.9902398170750648</v>
       </c>
       <c r="H118" t="n">
         <v>1.976268704656153</v>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0.07005336994873625</v>
+        <v>0.07005336994873626</v>
       </c>
       <c r="L118" t="n">
         <v>13.82716098318113</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>68.82319271773714</v>
+        <v>68.82319271773713</v>
       </c>
       <c r="C120" t="n">
         <v>0.01000838448548704</v>
@@ -5742,7 +5742,7 @@
         <v>0.01000193540966709</v>
       </c>
       <c r="E120" t="n">
-        <v>0.009980408730688294</v>
+        <v>0.009980408730688292</v>
       </c>
       <c r="F120" t="n">
         <v>0.01001245279498909</v>
@@ -5751,24 +5751,24 @@
         <v>15.2063816098881</v>
       </c>
       <c r="H120" t="n">
-        <v>5.106183571576796</v>
+        <v>5.106183571576795</v>
       </c>
       <c r="I120" t="n">
-        <v>0.009987846874868249</v>
+        <v>0.009987846874868247</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
         <v>0.01000222775376642</v>
       </c>
       <c r="L120" t="n">
-        <v>9.20240335735347</v>
+        <v>9.202403357353468</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="n">
-        <v>0.9021637372638728</v>
+        <v>0.9021637372638727</v>
       </c>
       <c r="O120" t="n">
-        <v>0.6996817501311555</v>
+        <v>0.6996817501311554</v>
       </c>
     </row>
     <row r="121">
@@ -5778,16 +5778,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>68.91849236878814</v>
+        <v>68.91849236878812</v>
       </c>
       <c r="C121" t="n">
-        <v>0.009987001906231578</v>
+        <v>0.009987001906231576</v>
       </c>
       <c r="D121" t="n">
         <v>0.01000157832782287</v>
       </c>
       <c r="E121" t="n">
-        <v>0.009980052417373956</v>
+        <v>0.009980052417373955</v>
       </c>
       <c r="F121" t="n">
         <v>0.01001209533766081</v>
@@ -5796,24 +5796,24 @@
         <v>15.10309656914848</v>
       </c>
       <c r="H121" t="n">
-        <v>5.106001274314118</v>
+        <v>5.106001274314117</v>
       </c>
       <c r="I121" t="n">
-        <v>0.009987490296002682</v>
+        <v>0.009987490296002681</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>0.01000187066148515</v>
       </c>
       <c r="L121" t="n">
-        <v>9.19175859244625</v>
+        <v>9.191758592446249</v>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="n">
-        <v>0.9210243357557044</v>
+        <v>0.9210243357557043</v>
       </c>
       <c r="O121" t="n">
-        <v>0.6996567706007477</v>
+        <v>0.6996567706007476</v>
       </c>
     </row>
     <row r="122">
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>72.50690446788468</v>
+        <v>72.50690446788467</v>
       </c>
       <c r="C122" t="n">
         <v>0.02001233354016769</v>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0.01001225140651361</v>
+        <v>0.0100122514065136</v>
       </c>
       <c r="L122" t="n">
         <v>6.004248830565883</v>
@@ -5858,7 +5858,7 @@
         <v>0.03999443331895436</v>
       </c>
       <c r="O122" t="n">
-        <v>0.07007121453747389</v>
+        <v>0.07007121453747388</v>
       </c>
     </row>
     <row r="123">
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>68.56692232644886</v>
+        <v>68.56692232644887</v>
       </c>
       <c r="C125" t="n">
         <v>0.02000362578115841</v>
@@ -5968,7 +5968,7 @@
         <v>0.009998600966413907</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01002314149108533</v>
+        <v>0.01002314149108534</v>
       </c>
       <c r="G125" t="n">
         <v>18.5510563050244</v>
@@ -5977,14 +5977,14 @@
         <v>5.098910075156668</v>
       </c>
       <c r="I125" t="n">
-        <v>0.009996900791362364</v>
+        <v>0.009996900791362366</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>0.01000337152909683</v>
       </c>
       <c r="L125" t="n">
-        <v>6.703641745114427</v>
+        <v>6.703641745114429</v>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="n">
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>68.52769958457819</v>
+        <v>68.5276995845782</v>
       </c>
       <c r="C126" t="n">
         <v>0.01999218298886336</v>
@@ -6010,33 +6010,33 @@
         <v>0.01001208638774106</v>
       </c>
       <c r="E126" t="n">
-        <v>0.00999288140760235</v>
+        <v>0.009992881407602352</v>
       </c>
       <c r="F126" t="n">
-        <v>0.01001740789421239</v>
+        <v>0.0100174078942124</v>
       </c>
       <c r="G126" t="n">
         <v>18.64231500844945</v>
       </c>
       <c r="H126" t="n">
-        <v>5.095993315487224</v>
+        <v>5.095993315487225</v>
       </c>
       <c r="I126" t="n">
-        <v>0.009991182205111993</v>
+        <v>0.009991182205111995</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>0.009997649241352106</v>
+        <v>0.009997649241352109</v>
       </c>
       <c r="L126" t="n">
-        <v>6.904381281494848</v>
+        <v>6.90438128149485</v>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="n">
-        <v>0.1198882297065462</v>
+        <v>0.1198882297065463</v>
       </c>
       <c r="O126" t="n">
-        <v>0.6397191901588476</v>
+        <v>0.6397191901588477</v>
       </c>
     </row>
     <row r="127">
@@ -6091,7 +6091,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>70.3890064443117</v>
+        <v>70.38900644431169</v>
       </c>
       <c r="C128" t="n">
         <v>0.2199331509311062</v>
@@ -6100,7 +6100,7 @@
         <v>0.00996201798413766</v>
       </c>
       <c r="E128" t="n">
-        <v>0.009985704922429712</v>
+        <v>0.009985704922429711</v>
       </c>
       <c r="F128" t="n">
         <v>3.031922412535214</v>
@@ -6112,21 +6112,21 @@
         <v>1.180389610141596</v>
       </c>
       <c r="I128" t="n">
-        <v>0.009961918429308455</v>
+        <v>0.009961918429308454</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
         <v>0.009992483539639829</v>
       </c>
       <c r="L128" t="n">
-        <v>13.93427878044191</v>
+        <v>13.9342787804419</v>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
         <v>0.02997978126858181</v>
       </c>
       <c r="O128" t="n">
-        <v>0.00995626335945653</v>
+        <v>0.009956263359456529</v>
       </c>
     </row>
     <row r="129">
@@ -6181,28 +6181,28 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>70.99311906179553</v>
+        <v>70.99311906179551</v>
       </c>
       <c r="C130" t="n">
         <v>0.1501131380904996</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01001925380040184</v>
+        <v>0.01001925380040183</v>
       </c>
       <c r="E130" t="n">
-        <v>0.009992861445571233</v>
+        <v>0.009992861445571231</v>
       </c>
       <c r="F130" t="n">
-        <v>9.008574476235195</v>
+        <v>9.008574476235193</v>
       </c>
       <c r="G130" t="n">
-        <v>4.80633621563058</v>
+        <v>4.806336215630579</v>
       </c>
       <c r="H130" t="n">
         <v>1.501119937840779</v>
       </c>
       <c r="I130" t="n">
-        <v>0.5000468515273521</v>
+        <v>0.500046851527352</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
-        <v>0.03000729748800593</v>
+        <v>0.03000729748800592</v>
       </c>
       <c r="O130" t="n">
         <v>0.02002693222615606</v>
@@ -6235,7 +6235,7 @@
         <v>0.01001758131091613</v>
       </c>
       <c r="E131" t="n">
-        <v>0.009991193361696644</v>
+        <v>0.009991193361696646</v>
       </c>
       <c r="F131" t="n">
         <v>10.50360153516917</v>
@@ -6251,10 +6251,10 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>0.09998390920205381</v>
+        <v>0.09998390920205383</v>
       </c>
       <c r="L131" t="n">
-        <v>13.6959373670977</v>
+        <v>13.69593736709771</v>
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
@@ -6269,16 +6269,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>70.61794705534861</v>
+        <v>70.61794705534859</v>
       </c>
       <c r="C132" t="n">
         <v>0.2307087756455539</v>
       </c>
       <c r="D132" t="n">
-        <v>0.009966305802045463</v>
+        <v>0.009966305802045461</v>
       </c>
       <c r="E132" t="n">
-        <v>0.009990002935588953</v>
+        <v>0.009990002935588951</v>
       </c>
       <c r="F132" t="n">
         <v>3.107208558423798</v>
@@ -6287,14 +6287,14 @@
         <v>11.27382413534635</v>
       </c>
       <c r="H132" t="n">
-        <v>1.189430167035469</v>
+        <v>1.189430167035468</v>
       </c>
       <c r="I132" t="n">
-        <v>0.009966206204366205</v>
+        <v>0.009966206204366203</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>0.009996784470428441</v>
+        <v>0.009996784470428439</v>
       </c>
       <c r="L132" t="n">
         <v>13.52101989449799</v>
@@ -6304,7 +6304,7 @@
         <v>0.009981565589331798</v>
       </c>
       <c r="O132" t="n">
-        <v>0.009960548700478345</v>
+        <v>0.009960548700478343</v>
       </c>
     </row>
     <row r="133">
@@ -6314,16 +6314,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>69.68045612578389</v>
+        <v>69.68045612578391</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0300996815195075</v>
+        <v>0.03009968151950751</v>
       </c>
       <c r="D133" t="n">
         <v>0.01001273864605144</v>
       </c>
       <c r="E133" t="n">
-        <v>0.00999118871579256</v>
+        <v>0.009991188715792562</v>
       </c>
       <c r="F133" t="n">
         <v>0.0100232673913548</v>
@@ -6332,7 +6332,7 @@
         <v>15.01709264665724</v>
       </c>
       <c r="H133" t="n">
-        <v>4.993995243367434</v>
+        <v>4.993995243367435</v>
       </c>
       <c r="I133" t="n">
         <v>0.009998634894020583</v>
@@ -6342,14 +6342,14 @@
         <v>0.200260626118318</v>
       </c>
       <c r="L133" t="n">
-        <v>8.799233455595445</v>
+        <v>8.799233455595447</v>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
-        <v>0.9787937316154001</v>
+        <v>0.9787937316154003</v>
       </c>
       <c r="O133" t="n">
-        <v>0.2600426596955252</v>
+        <v>0.2600426596955253</v>
       </c>
     </row>
     <row r="134">
@@ -6362,13 +6362,13 @@
         <v>68.98856201619149</v>
       </c>
       <c r="C134" t="n">
-        <v>0.03000920310284297</v>
+        <v>0.03000920310284298</v>
       </c>
       <c r="D134" t="n">
-        <v>0.01000863722182436</v>
+        <v>0.01000863722182437</v>
       </c>
       <c r="E134" t="n">
-        <v>0.009989438857805445</v>
+        <v>0.009989438857805446</v>
       </c>
       <c r="F134" t="n">
         <v>0.01001395689503557</v>
@@ -6380,21 +6380,21 @@
         <v>5.094237744692607</v>
       </c>
       <c r="I134" t="n">
-        <v>0.009987740240690712</v>
+        <v>0.009987740240690714</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
         <v>0.009994205049035448</v>
       </c>
       <c r="L134" t="n">
-        <v>6.697498936340754</v>
+        <v>6.697498936340756</v>
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
         <v>0.1100157348578697</v>
       </c>
       <c r="O134" t="n">
-        <v>0.6992960977817941</v>
+        <v>0.6992960977817942</v>
       </c>
     </row>
     <row r="135">
@@ -6404,41 +6404,41 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>70.24583226200085</v>
+        <v>70.24583226200083</v>
       </c>
       <c r="C135" t="n">
         <v>0.0999439126760813</v>
       </c>
       <c r="D135" t="n">
-        <v>0.620197450473739</v>
+        <v>0.6201974504737389</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3701429902067438</v>
+        <v>0.3701429902067437</v>
       </c>
       <c r="F135" t="n">
         <v>12.21737345696089</v>
       </c>
       <c r="G135" t="n">
-        <v>0.009995847359835473</v>
+        <v>0.009995847359835471</v>
       </c>
       <c r="H135" t="n">
-        <v>6.15329699884273</v>
+        <v>6.153296998842729</v>
       </c>
       <c r="I135" t="n">
-        <v>0.009989764349938384</v>
+        <v>0.009989764349938382</v>
       </c>
       <c r="J135" t="n">
         <v>0.02994241134715654</v>
       </c>
       <c r="K135" t="n">
-        <v>0.009995794712967755</v>
+        <v>0.009995794712967753</v>
       </c>
       <c r="L135" t="n">
         <v>10.20330569876536</v>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>0.02998341230373521</v>
+        <v>0.0299834123037352</v>
       </c>
       <c r="O135" t="inlineStr"/>
     </row>
@@ -6449,19 +6449,19 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>70.65343541824366</v>
+        <v>70.65343541824365</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2198292035219826</v>
+        <v>0.2198292035219825</v>
       </c>
       <c r="D136" t="n">
-        <v>0.009957309617278412</v>
+        <v>0.00995730961727841</v>
       </c>
       <c r="E136" t="n">
         <v>0.009980985360369307</v>
       </c>
       <c r="F136" t="n">
-        <v>3.104403805804668</v>
+        <v>3.104403805804667</v>
       </c>
       <c r="G136" t="n">
         <v>11.26364770618921</v>
@@ -6470,21 +6470,21 @@
         <v>1.190061475233309</v>
       </c>
       <c r="I136" t="n">
-        <v>0.009957210109501987</v>
+        <v>0.009957210109501985</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0.00998776077378912</v>
+        <v>0.009987760773789118</v>
       </c>
       <c r="L136" t="n">
-        <v>13.50881501180366</v>
+        <v>13.50881501180365</v>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
         <v>0.009972555630166422</v>
       </c>
       <c r="O136" t="n">
-        <v>0.009951557712416115</v>
+        <v>0.009951557712416114</v>
       </c>
     </row>
     <row r="137">
@@ -6494,10 +6494,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>70.769629895298</v>
+        <v>70.76962989529798</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2100619364275934</v>
+        <v>0.2100619364275933</v>
       </c>
       <c r="D137" t="n">
         <v>0.009959696765708931</v>
@@ -6515,7 +6515,7 @@
         <v>1.190346778542337</v>
       </c>
       <c r="I137" t="n">
-        <v>0.009959597234076681</v>
+        <v>0.009959597234076679</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>70.83031667551741</v>
+        <v>70.83031667551739</v>
       </c>
       <c r="C138" t="n">
         <v>0.2307534914063032</v>
@@ -6548,19 +6548,19 @@
         <v>0.009968237462185186</v>
       </c>
       <c r="E138" t="n">
-        <v>0.009991939188685106</v>
+        <v>0.009991939188685104</v>
       </c>
       <c r="F138" t="n">
-        <v>3.098561357813454</v>
+        <v>3.098561357813453</v>
       </c>
       <c r="G138" t="n">
-        <v>11.06719423196697</v>
+        <v>11.06719423196696</v>
       </c>
       <c r="H138" t="n">
         <v>1.189660701286402</v>
       </c>
       <c r="I138" t="n">
-        <v>0.009968137845201999</v>
+        <v>0.009968137845201997</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
@@ -6571,10 +6571,10 @@
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="n">
-        <v>0.009983500207109329</v>
+        <v>0.009983500207109327</v>
       </c>
       <c r="O138" t="n">
-        <v>0.009962479244781986</v>
+        <v>0.009962479244781984</v>
       </c>
     </row>
     <row r="139">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>72.31761819521016</v>
+        <v>72.31761819521014</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0300621377436217</v>
+        <v>0.03006213774362169</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5998338126416556</v>
+        <v>0.5998338126416555</v>
       </c>
       <c r="E141" t="n">
         <v>0.3000207759999852</v>
@@ -6689,7 +6689,7 @@
         <v>14.52286375014163</v>
       </c>
       <c r="G141" t="n">
-        <v>8.494754001874719</v>
+        <v>8.494754001874718</v>
       </c>
       <c r="H141" t="n">
         <v>2.505930824136283</v>
@@ -6699,10 +6699,10 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>0.009992175715382206</v>
+        <v>0.009992175715382204</v>
       </c>
       <c r="L141" t="n">
-        <v>0.009993825623661051</v>
+        <v>0.009993825623661049</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
@@ -6717,13 +6717,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>70.86596979832414</v>
+        <v>70.86596979832413</v>
       </c>
       <c r="C142" t="n">
         <v>0.2100532924227067</v>
       </c>
       <c r="D142" t="n">
-        <v>0.009959286926263593</v>
+        <v>0.009959286926263591</v>
       </c>
       <c r="E142" t="n">
         <v>0.009982967370851312</v>
@@ -6732,17 +6732,17 @@
         <v>3.105020274085236</v>
       </c>
       <c r="G142" t="n">
-        <v>11.05725693664267</v>
+        <v>11.05725693664266</v>
       </c>
       <c r="H142" t="n">
         <v>1.190297796020584</v>
       </c>
       <c r="I142" t="n">
-        <v>0.009959187398727049</v>
+        <v>0.009959187398727047</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0.009989744129723498</v>
+        <v>0.009989744129723496</v>
       </c>
       <c r="L142" t="n">
         <v>13.51149757389408</v>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>70.42740217663098</v>
+        <v>70.42740217663096</v>
       </c>
       <c r="C144" t="n">
         <v>0.08007967442639334</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5901215434716268</v>
+        <v>0.5901215434716267</v>
       </c>
       <c r="E144" t="n">
         <v>0.2996961299673889</v>
@@ -6825,16 +6825,16 @@
         <v>0.01000034002307986</v>
       </c>
       <c r="H144" t="n">
-        <v>6.295630793401967</v>
+        <v>6.295630793401966</v>
       </c>
       <c r="I144" t="n">
-        <v>0.009973562241310891</v>
+        <v>0.00997356224131089</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04990543323326619</v>
+        <v>0.04990543323326618</v>
       </c>
       <c r="K144" t="n">
-        <v>0.009995969659376802</v>
+        <v>0.0099959696593768</v>
       </c>
       <c r="L144" t="n">
         <v>9.99965354896846</v>
@@ -6855,13 +6855,13 @@
         <v>69.43548971580866</v>
       </c>
       <c r="C145" t="n">
-        <v>0.01999532428426596</v>
+        <v>0.01999532428426595</v>
       </c>
       <c r="D145" t="n">
         <v>0.01000322865329571</v>
       </c>
       <c r="E145" t="n">
-        <v>0.009984040663882754</v>
+        <v>0.009984040663882752</v>
       </c>
       <c r="F145" t="n">
         <v>0.01000854545180814</v>
@@ -6870,7 +6870,7 @@
         <v>18.11691983238655</v>
       </c>
       <c r="H145" t="n">
-        <v>4.791985759075811</v>
+        <v>4.79198575907581</v>
       </c>
       <c r="I145" t="n">
         <v>0.009982342964683904</v>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="n">
-        <v>0.0898366230685312</v>
+        <v>0.08983662306853119</v>
       </c>
       <c r="O145" t="n">
         <v>0.4100541488291891</v>
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>70.66001843006215</v>
+        <v>70.66001843006217</v>
       </c>
       <c r="C146" t="n">
         <v>0.01001164206950956</v>
@@ -6909,7 +6909,7 @@
         <v>0.02999245799145684</v>
       </c>
       <c r="F146" t="n">
-        <v>7.93510785208741</v>
+        <v>7.935107852087412</v>
       </c>
       <c r="G146" t="n">
         <v>10.0224775534014</v>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>0.009996895646817447</v>
+        <v>0.009996895646817449</v>
       </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
@@ -6929,7 +6929,7 @@
         <v>2.290469072461336</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2001802561543961</v>
+        <v>0.2001802561543962</v>
       </c>
       <c r="O146" t="n">
         <v>0.4900917013823397</v>
@@ -6985,16 +6985,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>70.72730954839858</v>
+        <v>70.72730954839857</v>
       </c>
       <c r="C148" t="n">
         <v>0.01999332049135093</v>
       </c>
       <c r="D148" t="n">
-        <v>0.009967448995285653</v>
+        <v>0.009967448995285651</v>
       </c>
       <c r="E148" t="n">
-        <v>0.00999308887593052</v>
+        <v>0.009993088875930518</v>
       </c>
       <c r="F148" t="n">
         <v>5.101513996591605</v>
@@ -7003,21 +7003,21 @@
         <v>11.1656501502086</v>
       </c>
       <c r="H148" t="n">
-        <v>5.104178740438786</v>
+        <v>5.104178740438785</v>
       </c>
       <c r="I148" t="n">
         <v>0.009960311540189951</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.009999054252393277</v>
+        <v>0.009999054252393275</v>
       </c>
       <c r="L148" t="n">
-        <v>6.1973615441623</v>
+        <v>6.197361544162299</v>
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="n">
-        <v>0.7081648370047651</v>
+        <v>0.708164837004765</v>
       </c>
       <c r="O148" t="n">
         <v>0.9359079590402268</v>
@@ -7030,10 +7030,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>70.5768356657439</v>
+        <v>70.57683566574389</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01998632270311241</v>
+        <v>0.0199863227031124</v>
       </c>
       <c r="D149" t="n">
         <v>0.01002886015289547</v>
@@ -7042,7 +7042,7 @@
         <v>0.01000727552510174</v>
       </c>
       <c r="F149" t="n">
-        <v>5.101843518586403</v>
+        <v>5.101843518586402</v>
       </c>
       <c r="G149" t="n">
         <v>11.22944254221795</v>
@@ -7051,7 +7051,7 @@
         <v>5.103087307092107</v>
       </c>
       <c r="I149" t="n">
-        <v>0.4900066128076249</v>
+        <v>0.4900066128076248</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
@@ -7062,10 +7062,10 @@
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="n">
-        <v>0.4096713909636129</v>
+        <v>0.4096713909636128</v>
       </c>
       <c r="O149" t="n">
-        <v>0.7393741670085613</v>
+        <v>0.7393741670085612</v>
       </c>
     </row>
     <row r="150">
@@ -7075,25 +7075,25 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>73.91792742259808</v>
+        <v>73.9179274225981</v>
       </c>
       <c r="C150" t="n">
-        <v>0.08986830813786174</v>
+        <v>0.08986830813786176</v>
       </c>
       <c r="D150" t="n">
-        <v>2.797599899020419</v>
+        <v>2.79759989902042</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3195935948308836</v>
+        <v>0.3195935948308837</v>
       </c>
       <c r="F150" t="n">
         <v>17.49258586341586</v>
       </c>
       <c r="G150" t="n">
-        <v>4.434668078665601</v>
+        <v>4.434668078665602</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0199322539665942</v>
+        <v>0.01993225396659421</v>
       </c>
       <c r="I150" t="n">
         <v>0.01002057767251453</v>
@@ -7103,7 +7103,7 @@
         <v>0.009991544290738952</v>
       </c>
       <c r="L150" t="n">
-        <v>0.009999844348699981</v>
+        <v>0.009999844348699983</v>
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
@@ -7118,42 +7118,42 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>70.45835816561492</v>
+        <v>70.45835816561495</v>
       </c>
       <c r="C151" t="n">
         <v>0.01000458500601086</v>
       </c>
       <c r="D151" t="n">
-        <v>0.009998138378451293</v>
+        <v>0.009998138378451295</v>
       </c>
       <c r="E151" t="n">
-        <v>0.009976619871638051</v>
+        <v>0.009976619871638052</v>
       </c>
       <c r="F151" t="n">
-        <v>5.095313628904295</v>
+        <v>5.095313628904296</v>
       </c>
       <c r="G151" t="n">
         <v>11.19504297978948</v>
       </c>
       <c r="H151" t="n">
-        <v>5.104245112906473</v>
+        <v>5.104245112906475</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9360051742573079</v>
+        <v>0.9360051742573082</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0.009998430611568137</v>
+        <v>0.009998430611568139</v>
       </c>
       <c r="L151" t="n">
-        <v>6.301046995179041</v>
+        <v>6.301046995179043</v>
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="n">
-        <v>0.09018212491621359</v>
+        <v>0.09018212491621362</v>
       </c>
       <c r="O151" t="n">
-        <v>0.7798280445645658</v>
+        <v>0.779828044564566</v>
       </c>
     </row>
     <row r="152">
@@ -7172,16 +7172,16 @@
         <v>0.009951109126732079</v>
       </c>
       <c r="E152" t="n">
-        <v>0.009978606576810916</v>
+        <v>0.009978606576810918</v>
       </c>
       <c r="F152" t="n">
-        <v>0.009961573066437782</v>
+        <v>0.009961573066437784</v>
       </c>
       <c r="G152" t="n">
         <v>14.61798966045393</v>
       </c>
       <c r="H152" t="n">
-        <v>4.996679251230634</v>
+        <v>4.996679251230635</v>
       </c>
       <c r="I152" t="n">
         <v>0.4294243408458503</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="n">
-        <v>0.4793355219076235</v>
+        <v>0.4793355219076236</v>
       </c>
       <c r="O152" t="n">
         <v>0.2000841818480487</v>
@@ -7217,10 +7217,10 @@
         <v>0.009959158510703168</v>
       </c>
       <c r="E153" t="n">
-        <v>0.009986678203280915</v>
+        <v>0.009986678203280917</v>
       </c>
       <c r="F153" t="n">
-        <v>0.009969630914617984</v>
+        <v>0.009969630914617986</v>
       </c>
       <c r="G153" t="n">
         <v>14.93673322802179</v>
@@ -7233,17 +7233,17 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>0.009991838058485416</v>
+        <v>0.009991838058485417</v>
       </c>
       <c r="L153" t="n">
-        <v>8.69051218717418</v>
+        <v>8.690512187174182</v>
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
         <v>0.3597924398445687</v>
       </c>
       <c r="O153" t="n">
-        <v>0.7092046845238377</v>
+        <v>0.7092046845238378</v>
       </c>
     </row>
     <row r="154">
@@ -7253,16 +7253,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>70.95140111970422</v>
+        <v>70.95140111970423</v>
       </c>
       <c r="C154" t="n">
-        <v>0.04000206279849952</v>
+        <v>0.04000206279849953</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4404794561514841</v>
+        <v>0.4404794561514843</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3201991133794114</v>
+        <v>0.3201991133794115</v>
       </c>
       <c r="F154" t="n">
         <v>12.00280213606982</v>
@@ -7271,13 +7271,13 @@
         <v>0.01000124804670615</v>
       </c>
       <c r="H154" t="n">
-        <v>6.1544291845695</v>
+        <v>6.154429184569501</v>
       </c>
       <c r="I154" t="n">
         <v>0.009964152975381434</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03011246966359633</v>
+        <v>0.03011246966359634</v>
       </c>
       <c r="K154" t="n">
         <v>0.01000291062964932</v>
@@ -7349,13 +7349,13 @@
         <v>0.2098204667413014</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009992891370068804</v>
+        <v>0.009992891370068806</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6018916759320319</v>
+        <v>0.601891675932032</v>
       </c>
       <c r="F156" t="n">
-        <v>8.193603342207458</v>
+        <v>8.19360334220746</v>
       </c>
       <c r="G156" t="n">
         <v>2.600269506383763</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>0.009988839636682874</v>
+        <v>0.009988839636682876</v>
       </c>
       <c r="L156" t="n">
         <v>14.22198759304251</v>
@@ -7388,42 +7388,42 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>70.64822447680061</v>
+        <v>70.64822447680064</v>
       </c>
       <c r="C157" t="n">
-        <v>0.009996605079270774</v>
+        <v>0.009996605079270776</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01001119551707035</v>
+        <v>0.01001119551707036</v>
       </c>
       <c r="E157" t="n">
-        <v>0.009989648908012903</v>
+        <v>0.009989648908012905</v>
       </c>
       <c r="F157" t="n">
-        <v>5.001750662914574</v>
+        <v>5.001750662914576</v>
       </c>
       <c r="G157" t="n">
-        <v>11.20966322432905</v>
+        <v>11.20966322432906</v>
       </c>
       <c r="H157" t="n">
-        <v>4.993225585927657</v>
+        <v>4.993225585927659</v>
       </c>
       <c r="I157" t="n">
-        <v>0.009997093938661442</v>
+        <v>0.009997093938661446</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>0.009995209289340291</v>
+        <v>0.009995209289340294</v>
       </c>
       <c r="L157" t="n">
-        <v>6.195688273153096</v>
+        <v>6.195688273153098</v>
       </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
-        <v>0.08982712455212191</v>
+        <v>0.08982712455212193</v>
       </c>
       <c r="O157" t="n">
-        <v>1.8116308995905</v>
+        <v>1.811630899590501</v>
       </c>
     </row>
     <row r="158">
@@ -7519,13 +7519,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>72.13372828498166</v>
+        <v>72.13372828498164</v>
       </c>
       <c r="C160" t="n">
         <v>0.03000010127190246</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04998716875451352</v>
+        <v>0.04998716875451351</v>
       </c>
       <c r="E160" t="n">
         <v>0.1698594230235665</v>
@@ -7540,14 +7540,14 @@
         <v>0.02002840472980529</v>
       </c>
       <c r="I160" t="n">
-        <v>3.998933536859262</v>
+        <v>3.998933536859261</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>0.009994857175486307</v>
+        <v>0.009994857175486305</v>
       </c>
       <c r="L160" t="n">
-        <v>6.897280797225225</v>
+        <v>6.897280797225223</v>
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>71.06064808295345</v>
+        <v>71.06064808295346</v>
       </c>
       <c r="C162" t="n">
         <v>0.01000683128282318</v>
@@ -7619,13 +7619,13 @@
         <v>0.00997885986958595</v>
       </c>
       <c r="F162" t="n">
-        <v>4.996348663244602</v>
+        <v>4.996348663244603</v>
       </c>
       <c r="G162" t="n">
         <v>11.09482666731547</v>
       </c>
       <c r="H162" t="n">
-        <v>5.105391142195509</v>
+        <v>5.10539114219551</v>
       </c>
       <c r="I162" t="n">
         <v>0.009986296859439213</v>
@@ -7652,37 +7652,37 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>73.79755901847371</v>
+        <v>73.79755901847372</v>
       </c>
       <c r="C163" t="n">
-        <v>0.09001488888338133</v>
+        <v>0.09001488888338134</v>
       </c>
       <c r="D163" t="n">
         <v>1.004451705326872</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4997614899037475</v>
+        <v>0.4997614899037476</v>
       </c>
       <c r="F163" t="n">
         <v>17.50724143373275</v>
       </c>
       <c r="G163" t="n">
-        <v>4.196799732947614</v>
+        <v>4.196799732947615</v>
       </c>
       <c r="H163" t="n">
-        <v>2.744333630084157</v>
+        <v>2.744333630084158</v>
       </c>
       <c r="I163" t="n">
         <v>0.009959432410501706</v>
       </c>
       <c r="J163" t="n">
-        <v>0.09990246222449709</v>
+        <v>0.09990246222449711</v>
       </c>
       <c r="K163" t="n">
-        <v>0.009989989893242105</v>
+        <v>0.009989989893242106</v>
       </c>
       <c r="L163" t="n">
-        <v>0.009996155008936579</v>
+        <v>0.00999615500893658</v>
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
@@ -7706,10 +7706,10 @@
         <v>0.009969907680592862</v>
       </c>
       <c r="E164" t="n">
-        <v>0.009995553885864806</v>
+        <v>0.009995553885864808</v>
       </c>
       <c r="F164" t="n">
-        <v>6.797589078562329</v>
+        <v>6.79758907856233</v>
       </c>
       <c r="G164" t="n">
         <v>2.802442214572278</v>
@@ -7722,10 +7722,10 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>0.009985151632778412</v>
+        <v>0.009985151632778414</v>
       </c>
       <c r="L164" t="n">
-        <v>14.2252590474685</v>
+        <v>14.22525904746851</v>
       </c>
       <c r="M164" t="n">
         <v>1.298869297372248</v>
@@ -7744,13 +7744,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>73.7716116968907</v>
+        <v>73.77161169689069</v>
       </c>
       <c r="C165" t="n">
-        <v>0.08995414064639098</v>
+        <v>0.08995414064639097</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4996861093658203</v>
+        <v>0.4996861093658202</v>
       </c>
       <c r="E165" t="n">
         <v>0.2802808686715494</v>
@@ -7759,7 +7759,7 @@
         <v>17.07792957786795</v>
       </c>
       <c r="G165" t="n">
-        <v>4.183861498242389</v>
+        <v>4.183861498242388</v>
       </c>
       <c r="H165" t="n">
         <v>2.025931402273784</v>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
-        <v>0.02999499165362049</v>
+        <v>0.02999499165362048</v>
       </c>
       <c r="O165" t="inlineStr"/>
     </row>
@@ -7793,7 +7793,7 @@
         <v>0.1000941177191152</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5303172916882669</v>
+        <v>0.5303172916882668</v>
       </c>
       <c r="E166" t="n">
         <v>0.2598901314148386</v>
@@ -7805,19 +7805,19 @@
         <v>0.009996396349029983</v>
       </c>
       <c r="H166" t="n">
-        <v>0.01999007283979084</v>
+        <v>0.01999007283979083</v>
       </c>
       <c r="I166" t="n">
         <v>0.009994074590787093</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02991151370751683</v>
+        <v>0.02991151370751682</v>
       </c>
       <c r="K166" t="n">
         <v>0.01000054349919434</v>
       </c>
       <c r="L166" t="n">
-        <v>9.750785473528104</v>
+        <v>9.750785473528103</v>
       </c>
       <c r="M166" t="n">
         <v>6.000480269958517</v>
@@ -7834,7 +7834,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>72.67352000154459</v>
+        <v>72.67352000154457</v>
       </c>
       <c r="C167" t="n">
         <v>0.159929417909641</v>
@@ -7843,7 +7843,7 @@
         <v>0.1599575042015549</v>
       </c>
       <c r="E167" t="n">
-        <v>0.04986115729461626</v>
+        <v>0.04986115729461624</v>
       </c>
       <c r="F167" t="n">
         <v>1.966244246000194</v>
@@ -7852,7 +7852,7 @@
         <v>10.04503070147611</v>
       </c>
       <c r="H167" t="n">
-        <v>0.9999332422644182</v>
+        <v>0.9999332422644179</v>
       </c>
       <c r="I167" t="n">
         <v>0.01003891776087448</v>
@@ -7862,7 +7862,7 @@
         <v>0.009995495146326694</v>
       </c>
       <c r="L167" t="n">
-        <v>13.91547760435113</v>
+        <v>13.91547760435112</v>
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="n">
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>72.80178811820089</v>
+        <v>72.80178811820088</v>
       </c>
       <c r="C168" t="n">
         <v>0.1599934198504822</v>
@@ -7886,7 +7886,7 @@
         <v>0.06000806901832945</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0400046511541491</v>
+        <v>0.04000465115414909</v>
       </c>
       <c r="F168" t="n">
         <v>1.948561338942788</v>
@@ -7931,33 +7931,33 @@
         <v>0.01000986624633945</v>
       </c>
       <c r="E169" t="n">
-        <v>0.00998832249820672</v>
+        <v>0.009988322498206722</v>
       </c>
       <c r="F169" t="n">
-        <v>5.001086538360402</v>
+        <v>5.001086538360403</v>
       </c>
       <c r="G169" t="n">
         <v>11.10534753099496</v>
       </c>
       <c r="H169" t="n">
-        <v>4.807652867641235</v>
+        <v>4.807652867641236</v>
       </c>
       <c r="I169" t="n">
-        <v>0.009995766540315847</v>
+        <v>0.009995766540315849</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
         <v>0.01001015882224724</v>
       </c>
       <c r="L169" t="n">
-        <v>6.205190395480939</v>
+        <v>6.20519039548094</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="n">
-        <v>0.08981519744838042</v>
+        <v>0.08981519744838043</v>
       </c>
       <c r="O169" t="n">
-        <v>0.8201572992177766</v>
+        <v>0.8201572992177768</v>
       </c>
     </row>
     <row r="170">
@@ -8012,32 +8012,32 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>73.71839884732634</v>
+        <v>73.71839884732633</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2394453487443837</v>
+        <v>0.2394453487443836</v>
       </c>
       <c r="D171" t="n">
         <v>0.009965485883444784</v>
       </c>
       <c r="E171" t="n">
-        <v>0.009987203011790475</v>
+        <v>0.009987203011790473</v>
       </c>
       <c r="F171" t="n">
-        <v>9.09563766556845</v>
+        <v>9.095637665568448</v>
       </c>
       <c r="G171" t="n">
-        <v>2.803962521686347</v>
+        <v>2.803962521686346</v>
       </c>
       <c r="H171" t="n">
         <v>1.299333346374367</v>
       </c>
       <c r="I171" t="n">
-        <v>0.3696252370850371</v>
+        <v>0.369625237085037</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>0.009994816937849748</v>
+        <v>0.009994816937849746</v>
       </c>
       <c r="L171" t="n">
         <v>12.38365004971924</v>
@@ -8047,7 +8047,7 @@
         <v>0.02999639379734623</v>
       </c>
       <c r="O171" t="n">
-        <v>0.03000308386541501</v>
+        <v>0.030003083865415</v>
       </c>
     </row>
     <row r="172">
@@ -8057,42 +8057,42 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>73.79188462842114</v>
+        <v>73.79188462842113</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2307328536260603</v>
+        <v>0.2307328536260602</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009961866363647643</v>
+        <v>0.009961866363647641</v>
       </c>
       <c r="E172" t="n">
-        <v>0.009983575604211753</v>
+        <v>0.009983575604211752</v>
       </c>
       <c r="F172" t="n">
-        <v>8.998983626911755</v>
+        <v>8.998983626911754</v>
       </c>
       <c r="G172" t="n">
-        <v>2.802944106932025</v>
+        <v>2.802944106932024</v>
       </c>
       <c r="H172" t="n">
         <v>1.300584049169295</v>
       </c>
       <c r="I172" t="n">
-        <v>0.2999827816440346</v>
+        <v>0.2999827816440345</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>0.01000786654242152</v>
+        <v>0.01000786654242151</v>
       </c>
       <c r="L172" t="n">
         <v>12.48495695926603</v>
       </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="n">
-        <v>0.02998549894059141</v>
+        <v>0.0299854989405914</v>
       </c>
       <c r="O172" t="n">
-        <v>0.02999218657879033</v>
+        <v>0.02999218657879032</v>
       </c>
     </row>
     <row r="173">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>71.68172356786141</v>
+        <v>71.68172356786143</v>
       </c>
       <c r="C173" t="n">
         <v>0.01999832930130064</v>
@@ -8111,7 +8111,7 @@
         <v>0.01004659280172218</v>
       </c>
       <c r="E173" t="n">
-        <v>0.009978407868024203</v>
+        <v>0.009978407868024204</v>
       </c>
       <c r="F173" t="n">
         <v>0.009961374696847545</v>
@@ -8120,24 +8120,24 @@
         <v>12.9821518727705</v>
       </c>
       <c r="H173" t="n">
-        <v>4.996579749956186</v>
+        <v>4.996579749956187</v>
       </c>
       <c r="I173" t="n">
-        <v>0.4702280339704593</v>
+        <v>0.4702280339704594</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>0.009999744266127576</v>
+        <v>0.009999744266127578</v>
       </c>
       <c r="L173" t="n">
-        <v>8.89885854109542</v>
+        <v>8.898858541095422</v>
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="n">
         <v>0.200189084373562</v>
       </c>
       <c r="O173" t="n">
-        <v>0.7102847010384176</v>
+        <v>0.7102847010384177</v>
       </c>
     </row>
     <row r="174">
@@ -8192,19 +8192,19 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>73.90468275893174</v>
+        <v>73.90468275893173</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2393989932459786</v>
+        <v>0.2393989932459785</v>
       </c>
       <c r="D175" t="n">
-        <v>0.00996355661203735</v>
+        <v>0.009963556612037348</v>
       </c>
       <c r="E175" t="n">
-        <v>0.009985269536048676</v>
+        <v>0.009985269536048674</v>
       </c>
       <c r="F175" t="n">
-        <v>9.00051050119707</v>
+        <v>9.000510501197068</v>
       </c>
       <c r="G175" t="n">
         <v>2.803419687670637</v>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>0.009992881988087511</v>
+        <v>0.00999288198808751</v>
       </c>
       <c r="L175" t="n">
         <v>12.38125263305135</v>
@@ -8227,7 +8227,7 @@
         <v>0.02999058663595378</v>
       </c>
       <c r="O175" t="n">
-        <v>0.02002683429874961</v>
+        <v>0.0200268342987496</v>
       </c>
     </row>
     <row r="176">
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>75.34142169120918</v>
+        <v>75.34142169120916</v>
       </c>
       <c r="C176" t="n">
         <v>0.1000721344748696</v>
@@ -8249,10 +8249,10 @@
         <v>0.3000473809806098</v>
       </c>
       <c r="F176" t="n">
-        <v>16.96839487296751</v>
+        <v>16.9683948729675</v>
       </c>
       <c r="G176" t="n">
-        <v>4.20529682031492</v>
+        <v>4.205296820314919</v>
       </c>
       <c r="H176" t="n">
         <v>0.01994195015849742</v>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
-        <v>0.03000694408616624</v>
+        <v>0.03000694408616623</v>
       </c>
       <c r="O176" t="inlineStr"/>
     </row>
@@ -8280,7 +8280,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>73.54409510071113</v>
+        <v>73.54409510071115</v>
       </c>
       <c r="C177" t="n">
         <v>0.1498516690707225</v>
@@ -8298,21 +8298,21 @@
         <v>10.05561524479611</v>
       </c>
       <c r="H177" t="n">
-        <v>0.9992816225841878</v>
+        <v>0.999281622584188</v>
       </c>
       <c r="I177" t="n">
         <v>0.009958959864166325</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>0.009989515897042325</v>
+        <v>0.009989515897042327</v>
       </c>
       <c r="L177" t="n">
         <v>12.04485830456296</v>
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
-        <v>0.009974308081459242</v>
+        <v>0.009974308081459243</v>
       </c>
       <c r="O177" t="inlineStr"/>
     </row>
@@ -8459,7 +8459,7 @@
         <v>74.15637187264595</v>
       </c>
       <c r="C181" t="n">
-        <v>0.1501116527468109</v>
+        <v>0.1501116527468108</v>
       </c>
       <c r="D181" t="n">
         <v>0.1599481692552547</v>
@@ -8474,21 +8474,21 @@
         <v>10.07570312904992</v>
       </c>
       <c r="H181" t="n">
-        <v>1.219608891427704</v>
+        <v>1.219608891427703</v>
       </c>
       <c r="I181" t="n">
-        <v>0.01003833190053191</v>
+        <v>0.0100383319005319</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>0.009994911820080762</v>
+        <v>0.009994911820080761</v>
       </c>
       <c r="L181" t="n">
         <v>12.13609924370967</v>
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
-        <v>0.01001112777790601</v>
+        <v>0.010011127777906</v>
       </c>
       <c r="O181" t="inlineStr"/>
     </row>
@@ -8544,16 +8544,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>75.67580088905351</v>
+        <v>75.67580088905352</v>
       </c>
       <c r="C183" t="n">
-        <v>0.03993084100254385</v>
+        <v>0.03993084100254386</v>
       </c>
       <c r="D183" t="n">
         <v>0.01002549179749963</v>
       </c>
       <c r="E183" t="n">
-        <v>0.019993191105854</v>
+        <v>0.01999319110585401</v>
       </c>
       <c r="F183" t="n">
         <v>12.4949074383889</v>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="n">
-        <v>0.9994002786656653</v>
+        <v>0.9994002786656655</v>
       </c>
       <c r="O183" t="inlineStr"/>
     </row>
@@ -8590,19 +8590,19 @@
         <v>75.74445053273303</v>
       </c>
       <c r="C184" t="n">
-        <v>0.02993538448764577</v>
+        <v>0.02993538448764576</v>
       </c>
       <c r="D184" t="n">
         <v>0.01002122483443381</v>
       </c>
       <c r="E184" t="n">
-        <v>0.009992340888430755</v>
+        <v>0.009992340888430753</v>
       </c>
       <c r="F184" t="n">
         <v>12.48958946400647</v>
       </c>
       <c r="G184" t="n">
-        <v>8.310534528366992</v>
+        <v>8.31053452836699</v>
       </c>
       <c r="H184" t="n">
         <v>2.218102114869765</v>
@@ -8617,7 +8617,7 @@
         <v>0.01000038244773628</v>
       </c>
       <c r="L184" t="n">
-        <v>0.009994261969739043</v>
+        <v>0.009994261969739042</v>
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="n">
@@ -8634,19 +8634,19 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>75.77120756576223</v>
+        <v>75.77120756576221</v>
       </c>
       <c r="C185" t="n">
-        <v>0.02994595928310397</v>
+        <v>0.02994595928310396</v>
       </c>
       <c r="D185" t="n">
         <v>0.01002476487257524</v>
       </c>
       <c r="E185" t="n">
-        <v>0.009995870723201622</v>
+        <v>0.009995870723201619</v>
       </c>
       <c r="F185" t="n">
-        <v>12.49400146192129</v>
+        <v>12.49400146192128</v>
       </c>
       <c r="G185" t="n">
         <v>8.313470258249534</v>
@@ -8662,14 +8662,14 @@
         <v>0.01000391512322044</v>
       </c>
       <c r="L185" t="n">
-        <v>0.009997792483139641</v>
+        <v>0.009997792483139638</v>
       </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="n">
         <v>1.07244936189457</v>
       </c>
       <c r="O185" t="n">
-        <v>0.04998549811685345</v>
+        <v>0.04998549811685344</v>
       </c>
     </row>
     <row r="186">
@@ -8679,37 +8679,37 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>75.77334835158693</v>
+        <v>75.77334835158692</v>
       </c>
       <c r="C186" t="n">
-        <v>0.02994680535494577</v>
+        <v>0.02994680535494576</v>
       </c>
       <c r="D186" t="n">
         <v>0.01002504810515428</v>
       </c>
       <c r="E186" t="n">
-        <v>0.009996153139425902</v>
+        <v>0.009996153139425899</v>
       </c>
       <c r="F186" t="n">
-        <v>12.49435445855527</v>
+        <v>12.49435445855526</v>
       </c>
       <c r="G186" t="n">
-        <v>8.345517788350978</v>
+        <v>8.345517788350977</v>
       </c>
       <c r="H186" t="n">
         <v>2.218948359217227</v>
       </c>
       <c r="I186" t="n">
-        <v>0.01003216660480849</v>
+        <v>0.01003216660480848</v>
       </c>
       <c r="J186" t="n">
-        <v>0.009996189273941913</v>
+        <v>0.00999618927394191</v>
       </c>
       <c r="K186" t="n">
         <v>0.01000419776672548</v>
       </c>
       <c r="L186" t="n">
-        <v>0.009998074953659959</v>
+        <v>0.009998074953659956</v>
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="n">
@@ -8732,16 +8732,16 @@
         <v>0.02994045015656346</v>
       </c>
       <c r="D187" t="n">
-        <v>0.01002292062715637</v>
+        <v>0.01002292062715636</v>
       </c>
       <c r="E187" t="n">
-        <v>0.009994031793408924</v>
+        <v>0.009994031793408922</v>
       </c>
       <c r="F187" t="n">
         <v>12.58562553225065</v>
       </c>
       <c r="G187" t="n">
-        <v>8.29073690718676</v>
+        <v>8.290736907186758</v>
       </c>
       <c r="H187" t="n">
         <v>2.218477462343395</v>
@@ -8750,13 +8750,13 @@
         <v>0.01003003761614936</v>
       </c>
       <c r="J187" t="n">
-        <v>0.009994067920256606</v>
+        <v>0.009994067920256604</v>
       </c>
       <c r="K187" t="n">
         <v>0.01000207471350796</v>
       </c>
       <c r="L187" t="n">
-        <v>0.009995953199802794</v>
+        <v>0.009995953199802792</v>
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>75.69423694965199</v>
+        <v>75.69423694965198</v>
       </c>
       <c r="C188" t="n">
         <v>0.02991553929891628</v>
@@ -8788,24 +8788,24 @@
         <v>12.5751541223555</v>
       </c>
       <c r="G188" t="n">
-        <v>8.379177201842715</v>
+        <v>8.379177201842714</v>
       </c>
       <c r="H188" t="n">
-        <v>2.233949094062938</v>
+        <v>2.233949094062937</v>
       </c>
       <c r="I188" t="n">
         <v>0.01002169248980873</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>0.00999375285267882</v>
+        <v>0.009993752852678818</v>
       </c>
       <c r="L188" t="n">
-        <v>0.009998272892679605</v>
+        <v>0.009998272892679603</v>
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>1.027531575329311</v>
+        <v>1.02753157532931</v>
       </c>
       <c r="O188" t="n">
         <v>0.01002150117682355</v>
@@ -8953,16 +8953,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>74.40312136172041</v>
+        <v>74.40312136172039</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1199649797405951</v>
+        <v>0.119964979740595</v>
       </c>
       <c r="D192" t="n">
         <v>0.1803065470836059</v>
       </c>
       <c r="E192" t="n">
-        <v>0.05978918003697226</v>
+        <v>0.05978918003697224</v>
       </c>
       <c r="F192" t="n">
         <v>2.010913324829759</v>
@@ -8971,7 +8971,7 @@
         <v>10.06884616509697</v>
       </c>
       <c r="H192" t="n">
-        <v>0.999194427929908</v>
+        <v>0.9991944279299078</v>
       </c>
       <c r="I192" t="n">
         <v>0.01003150036936152</v>
@@ -8981,7 +8981,7 @@
         <v>0.009988109838205615</v>
       </c>
       <c r="L192" t="n">
-        <v>12.12784008859388</v>
+        <v>12.12784008859387</v>
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
@@ -8996,44 +8996,44 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>75.8437592504137</v>
+        <v>75.84375925041368</v>
       </c>
       <c r="C193" t="n">
-        <v>0.02993477295278421</v>
+        <v>0.0299347729527842</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0100210201158893</v>
+        <v>0.01002102011588929</v>
       </c>
       <c r="E193" t="n">
-        <v>0.009992136759941797</v>
+        <v>0.009992136759941794</v>
       </c>
       <c r="F193" t="n">
         <v>12.4893343204867</v>
       </c>
       <c r="G193" t="n">
-        <v>8.278564891511124</v>
+        <v>8.278564891511122</v>
       </c>
       <c r="H193" t="n">
-        <v>2.200728233612515</v>
+        <v>2.200728233612514</v>
       </c>
       <c r="I193" t="n">
         <v>0.01002813575538365</v>
       </c>
       <c r="J193" t="n">
-        <v>0.009992172879939231</v>
+        <v>0.00999217287993923</v>
       </c>
       <c r="K193" t="n">
         <v>0.01000017815497036</v>
       </c>
       <c r="L193" t="n">
-        <v>0.009994057802005286</v>
+        <v>0.009994057802005282</v>
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
         <v>1.047684003549796</v>
       </c>
       <c r="O193" t="n">
-        <v>0.04996682600527251</v>
+        <v>0.04996682600527249</v>
       </c>
     </row>
     <row r="194">
@@ -9043,7 +9043,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>75.82573671199697</v>
+        <v>75.82573671199695</v>
       </c>
       <c r="C194" t="n">
         <v>0.02992765963718817</v>
@@ -9052,23 +9052,23 @@
         <v>0.01001863884916678</v>
       </c>
       <c r="E194" t="n">
-        <v>0.009989762356689622</v>
+        <v>0.00998976235668962</v>
       </c>
       <c r="F194" t="n">
         <v>12.48636651522737</v>
       </c>
       <c r="G194" t="n">
-        <v>8.308389988132983</v>
+        <v>8.30838998813298</v>
       </c>
       <c r="H194" t="n">
-        <v>2.217529731804363</v>
+        <v>2.217529731804362</v>
       </c>
       <c r="I194" t="n">
-        <v>0.01002575279779181</v>
+        <v>0.0100257527977918</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>0.009997801840864186</v>
+        <v>0.009997801840864184</v>
       </c>
       <c r="L194" t="n">
         <v>0.01000232371216787</v>
@@ -9097,30 +9097,30 @@
         <v>0.01001462326537941</v>
       </c>
       <c r="E195" t="n">
-        <v>0.009985758346927101</v>
+        <v>0.009985758346927099</v>
       </c>
       <c r="F195" t="n">
-        <v>12.57520666412678</v>
+        <v>12.57520666412677</v>
       </c>
       <c r="G195" t="n">
         <v>8.305059891436434</v>
       </c>
       <c r="H195" t="n">
-        <v>2.216640920801879</v>
+        <v>2.216640920801878</v>
       </c>
       <c r="I195" t="n">
-        <v>0.01002173436265335</v>
+        <v>0.01002173436265334</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>0.009993794608785462</v>
+        <v>0.00999379460878546</v>
       </c>
       <c r="L195" t="n">
-        <v>0.009998314667671971</v>
+        <v>0.009998314667671969</v>
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>1.017796192103712</v>
+        <v>1.017796192103711</v>
       </c>
       <c r="O195" t="n">
         <v>0.01002154304886882</v>
@@ -9223,22 +9223,22 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>75.88907572787735</v>
+        <v>75.88907572787734</v>
       </c>
       <c r="C198" t="n">
-        <v>0.02991288114556305</v>
+        <v>0.02991288114556304</v>
       </c>
       <c r="D198" t="n">
         <v>0.0100136915738996</v>
       </c>
       <c r="E198" t="n">
-        <v>0.009984829340840232</v>
+        <v>0.00998482934084023</v>
       </c>
       <c r="F198" t="n">
-        <v>12.48020065845105</v>
+        <v>12.48020065845104</v>
       </c>
       <c r="G198" t="n">
-        <v>8.304287245942433</v>
+        <v>8.304287245942431</v>
       </c>
       <c r="H198" t="n">
         <v>2.199118803725995</v>
@@ -9248,17 +9248,17 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>0.009992864855060214</v>
+        <v>0.009992864855060212</v>
       </c>
       <c r="L198" t="n">
-        <v>0.009997384493431618</v>
+        <v>0.009997384493431617</v>
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
         <v>1.027440273732664</v>
       </c>
       <c r="O198" t="n">
-        <v>0.01995483685212275</v>
+        <v>0.01995483685212274</v>
       </c>
     </row>
     <row r="199">
@@ -9289,11 +9289,11 @@
         <v>1.301377274576355</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2906294068039604</v>
+        <v>0.2906294068039603</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>0.01000072434152964</v>
+        <v>0.01000072434152963</v>
       </c>
       <c r="L199" t="n">
         <v>12.37031774974451</v>
@@ -9303,7 +9303,7 @@
         <v>0.03001250679783053</v>
       </c>
       <c r="O199" t="n">
-        <v>0.02000914698531271</v>
+        <v>0.0200091469853127</v>
       </c>
     </row>
     <row r="200">
@@ -9313,7 +9313,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>75.98102627581034</v>
+        <v>75.98102627581035</v>
       </c>
       <c r="C200" t="n">
         <v>0.03987920611406465</v>
@@ -9322,13 +9322,13 @@
         <v>0.0100125277542209</v>
       </c>
       <c r="E200" t="n">
-        <v>0.009983668875612237</v>
+        <v>0.009983668875612238</v>
       </c>
       <c r="F200" t="n">
         <v>12.38492498480159</v>
       </c>
       <c r="G200" t="n">
-        <v>8.260958209834738</v>
+        <v>8.26095820983474</v>
       </c>
       <c r="H200" t="n">
         <v>2.216177099481709</v>
@@ -9338,17 +9338,17 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>0.00999170345592193</v>
+        <v>0.009991703455921932</v>
       </c>
       <c r="L200" t="n">
-        <v>0.009996222569008124</v>
+        <v>0.009996222569008126</v>
       </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
         <v>1.037058500205176</v>
       </c>
       <c r="O200" t="n">
-        <v>0.02997196373408119</v>
+        <v>0.0299719637340812</v>
       </c>
     </row>
     <row r="201">
@@ -9358,7 +9358,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>76.01913199148638</v>
+        <v>76.01913199148639</v>
       </c>
       <c r="C201" t="n">
         <v>0.1298892636034553</v>
@@ -9385,7 +9385,7 @@
         <v>0.09988711954789516</v>
       </c>
       <c r="K201" t="n">
-        <v>0.009996714457084622</v>
+        <v>0.009996714457084624</v>
       </c>
       <c r="L201" t="n">
         <v>0.01000123583657925</v>
@@ -9403,7 +9403,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>76.68321577536197</v>
+        <v>76.68321577536199</v>
       </c>
       <c r="C202" t="n">
         <v>0.1399921930071792</v>
@@ -9428,10 +9428,10 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>0.009999445531652329</v>
+        <v>0.009999445531652331</v>
       </c>
       <c r="L202" t="n">
-        <v>0.009992011068848528</v>
+        <v>0.00999201106884853</v>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>76.26656892056569</v>
+        <v>76.26656892056567</v>
       </c>
       <c r="C204" t="n">
         <v>0.1199281699491824</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5396045915885714</v>
+        <v>0.5396045915885713</v>
       </c>
       <c r="E204" t="n">
         <v>1.198917758530191</v>
@@ -9512,10 +9512,10 @@
         <v>3.002576243283573</v>
       </c>
       <c r="I204" t="n">
-        <v>0.3501567881539559</v>
+        <v>0.3501567881539558</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04991307389515604</v>
+        <v>0.04991307389515603</v>
       </c>
       <c r="K204" t="n">
         <v>0.4100497490797826</v>
@@ -9536,10 +9536,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>75.69102388002216</v>
+        <v>75.69102388002217</v>
       </c>
       <c r="C205" t="n">
-        <v>0.009999915382834373</v>
+        <v>0.009999915382834375</v>
       </c>
       <c r="D205" t="n">
         <v>0.07003530815876384</v>
@@ -9571,7 +9571,7 @@
         <v>0.240101421867302</v>
       </c>
       <c r="O205" t="n">
-        <v>0.230543400539659</v>
+        <v>0.2305434005396591</v>
       </c>
     </row>
     <row r="206">
@@ -9587,16 +9587,16 @@
         <v>0.04003906394480428</v>
       </c>
       <c r="D206" t="n">
-        <v>0.009998324760634527</v>
+        <v>0.009998324760634525</v>
       </c>
       <c r="E206" t="n">
-        <v>0.04002984717674808</v>
+        <v>0.04002984717674807</v>
       </c>
       <c r="F206" t="n">
         <v>12.46104878907163</v>
       </c>
       <c r="G206" t="n">
-        <v>8.259815805186609</v>
+        <v>8.259815805186607</v>
       </c>
       <c r="H206" t="n">
         <v>2.195744079454213</v>
@@ -9606,17 +9606,17 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>0.009994270824217548</v>
+        <v>0.009994270824217546</v>
       </c>
       <c r="L206" t="n">
         <v>0.01000328109342346</v>
       </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="n">
-        <v>0.7681822099592313</v>
+        <v>0.7681822099592311</v>
       </c>
       <c r="O206" t="n">
-        <v>0.02001046656475976</v>
+        <v>0.02001046656475975</v>
       </c>
     </row>
     <row r="207">
@@ -9716,16 +9716,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>76.26041834797861</v>
+        <v>76.2604183479786</v>
       </c>
       <c r="C209" t="n">
-        <v>0.04003101278105335</v>
+        <v>0.04003101278105334</v>
       </c>
       <c r="D209" t="n">
-        <v>0.009996314270329513</v>
+        <v>0.009996314270329511</v>
       </c>
       <c r="E209" t="n">
-        <v>0.01001809858095237</v>
+        <v>0.01001809858095236</v>
       </c>
       <c r="F209" t="n">
         <v>12.36486983123136</v>
@@ -9741,17 +9741,17 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>0.009992261149089082</v>
+        <v>0.00999226114908908</v>
       </c>
       <c r="L209" t="n">
         <v>0.01000126960648558</v>
       </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="n">
-        <v>0.81177615746534</v>
+        <v>0.8117761574653399</v>
       </c>
       <c r="O209" t="n">
-        <v>0.03000966420867164</v>
+        <v>0.03000966420867163</v>
       </c>
     </row>
     <row r="210">
@@ -9851,13 +9851,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>75.60185462485589</v>
+        <v>75.60185462485592</v>
       </c>
       <c r="C212" t="n">
-        <v>0.01001289315635851</v>
+        <v>0.01001289315635852</v>
       </c>
       <c r="D212" t="n">
-        <v>0.009981770462341583</v>
+        <v>0.009981770462341586</v>
       </c>
       <c r="E212" t="n">
         <v>0.01000550436659305</v>
@@ -9869,10 +9869,10 @@
         <v>10.308554830682</v>
       </c>
       <c r="H212" t="n">
-        <v>3.093556953167227</v>
+        <v>3.093556953167228</v>
       </c>
       <c r="I212" t="n">
-        <v>0.00998167071011717</v>
+        <v>0.009981670710117173</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
@@ -9902,7 +9902,7 @@
         <v>0.01999557529799753</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7395413707886803</v>
+        <v>0.7395413707886804</v>
       </c>
       <c r="E213" t="n">
         <v>0.1000458994278613</v>
@@ -9914,14 +9914,14 @@
         <v>10.20181224770997</v>
       </c>
       <c r="H213" t="n">
-        <v>1.975216058504876</v>
+        <v>1.975216058504877</v>
       </c>
       <c r="I213" t="n">
         <v>0.0100309130296659</v>
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>0.009995166259782393</v>
+        <v>0.009995166259782395</v>
       </c>
       <c r="L213" t="n">
         <v>0.01000089056901219</v>
@@ -9947,16 +9947,16 @@
         <v>0.01000840761237056</v>
       </c>
       <c r="D214" t="n">
-        <v>0.05000236295929066</v>
+        <v>0.05000236295929067</v>
       </c>
       <c r="E214" t="n">
-        <v>0.01998745049902111</v>
+        <v>0.01998745049902112</v>
       </c>
       <c r="F214" t="n">
         <v>10.5992390545186</v>
       </c>
       <c r="G214" t="n">
-        <v>10.60004192638854</v>
+        <v>10.60004192638855</v>
       </c>
       <c r="H214" t="n">
         <v>2.058856728414451</v>
@@ -9973,10 +9973,10 @@
       </c>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="n">
-        <v>0.3599257069269995</v>
+        <v>0.3599257069269996</v>
       </c>
       <c r="O214" t="n">
-        <v>0.08002906100640837</v>
+        <v>0.08002906100640839</v>
       </c>
     </row>
     <row r="215">
@@ -9986,13 +9986,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>74.01876078936131</v>
+        <v>74.01876078936132</v>
       </c>
       <c r="C215" t="n">
-        <v>0.09994191277365323</v>
+        <v>0.09994191277365326</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5000772627308919</v>
+        <v>0.500077262730892</v>
       </c>
       <c r="E215" t="n">
         <v>0.3000423240165812</v>
@@ -10004,23 +10004,23 @@
         <v>1.998367492531828</v>
       </c>
       <c r="H215" t="n">
-        <v>0.02000134503837459</v>
+        <v>0.0200013450383746</v>
       </c>
       <c r="I215" t="n">
-        <v>0.00999971014771333</v>
+        <v>0.009999710147713331</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>0.009990043699511094</v>
+        <v>0.009990043699511095</v>
       </c>
       <c r="L215" t="n">
         <v>4.99587252360176</v>
       </c>
       <c r="M215" t="n">
-        <v>6.003863879700361</v>
+        <v>6.003863879700362</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02999763998334817</v>
+        <v>0.02999763998334818</v>
       </c>
       <c r="O215" t="inlineStr"/>
     </row>
@@ -10031,7 +10031,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>76.41861523833984</v>
+        <v>76.41861523833981</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
@@ -10041,7 +10041,7 @@
         <v>0.4100050100054793</v>
       </c>
       <c r="F216" t="n">
-        <v>10.16451739619283</v>
+        <v>10.16451739619282</v>
       </c>
       <c r="G216" t="n">
         <v>10.40000584555072</v>
@@ -10050,21 +10050,21 @@
         <v>1.996150577622156</v>
       </c>
       <c r="I216" t="n">
-        <v>0.009958474597985515</v>
+        <v>0.009958474597985514</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>0.009997360275533093</v>
+        <v>0.00999736027553309</v>
       </c>
       <c r="L216" t="n">
-        <v>0.009998618921806632</v>
+        <v>0.00999861892180663</v>
       </c>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="n">
-        <v>0.2501813959834713</v>
+        <v>0.2501813959834712</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2300707106731474</v>
+        <v>0.2300707106731473</v>
       </c>
     </row>
     <row r="217">
@@ -10083,10 +10083,10 @@
         <v>0.05001162085045087</v>
       </c>
       <c r="E217" t="n">
-        <v>0.1000648638386751</v>
+        <v>0.100064863838675</v>
       </c>
       <c r="F217" t="n">
-        <v>7.697472459657159</v>
+        <v>7.697472459657158</v>
       </c>
       <c r="G217" t="n">
         <v>12.23346137144654</v>
@@ -10095,18 +10095,18 @@
         <v>3.042581121572218</v>
       </c>
       <c r="I217" t="n">
-        <v>0.009982650388172981</v>
+        <v>0.009982650388172979</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>0.009996728233642069</v>
+        <v>0.009996728233642067</v>
       </c>
       <c r="L217" t="n">
-        <v>0.009994767197464153</v>
+        <v>0.009994767197464151</v>
       </c>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="n">
-        <v>0.6296839424042409</v>
+        <v>0.6296839424042407</v>
       </c>
       <c r="O217" t="n">
         <v>0.1995396709887148</v>
@@ -10128,7 +10128,7 @@
         <v>0.1097655779533988</v>
       </c>
       <c r="E218" t="n">
-        <v>3.181483892460434</v>
+        <v>3.181483892460433</v>
       </c>
       <c r="F218" t="n">
         <v>0.01000751061969134</v>
@@ -10140,11 +10140,11 @@
         <v>0.02005010521164078</v>
       </c>
       <c r="I218" t="n">
-        <v>0.009991405719991251</v>
+        <v>0.009991405719991249</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>0.009996516541906092</v>
+        <v>0.00999651654190609</v>
       </c>
       <c r="L218" t="n">
         <v>0.01000314033721183</v>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>76.46016760161982</v>
+        <v>76.46016760161983</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
@@ -10218,13 +10218,13 @@
         <v>10.23651519600577</v>
       </c>
       <c r="G220" t="n">
-        <v>10.39946549271578</v>
+        <v>10.39946549271579</v>
       </c>
       <c r="H220" t="n">
         <v>2.043532060748618</v>
       </c>
       <c r="I220" t="n">
-        <v>0.01002901294551361</v>
+        <v>0.01002901294551362</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
@@ -10235,10 +10235,10 @@
       </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="n">
-        <v>0.1999235681585853</v>
+        <v>0.1999235681585854</v>
       </c>
       <c r="O220" t="n">
-        <v>0.220170357740827</v>
+        <v>0.2201703577408271</v>
       </c>
     </row>
     <row r="221">
@@ -10424,14 +10424,14 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>76.49227769309155</v>
+        <v>76.49227769309157</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
         <v>0.4401040722917972</v>
       </c>
       <c r="E225" t="n">
-        <v>0.07985021330783047</v>
+        <v>0.07985021330783049</v>
       </c>
       <c r="F225" t="n">
         <v>10.13446812597832</v>
@@ -10440,7 +10440,7 @@
         <v>10.29579398311872</v>
       </c>
       <c r="H225" t="n">
-        <v>2.007406698053194</v>
+        <v>2.007406698053195</v>
       </c>
       <c r="I225" t="n">
         <v>0.01002012650939533</v>
@@ -10454,10 +10454,10 @@
       </c>
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="n">
-        <v>0.3001021112466334</v>
+        <v>0.3001021112466335</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2199752707636905</v>
+        <v>0.2199752707636906</v>
       </c>
     </row>
     <row r="226">
@@ -10470,7 +10470,7 @@
         <v>76.61008317407678</v>
       </c>
       <c r="C226" t="n">
-        <v>0.009989376786787133</v>
+        <v>0.009989376786787135</v>
       </c>
       <c r="D226" t="n">
         <v>0.1100517979919864</v>
@@ -10492,14 +10492,14 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>0.009986757602873002</v>
+        <v>0.009986757602873004</v>
       </c>
       <c r="L226" t="n">
         <v>0.009992477096399778</v>
       </c>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="n">
-        <v>0.2697691108128473</v>
+        <v>0.2697691108128474</v>
       </c>
       <c r="O226" t="n">
         <v>0.2200268126150615</v>
@@ -10515,29 +10515,29 @@
         <v>76.552605892682</v>
       </c>
       <c r="C227" t="n">
-        <v>0.00999032340279838</v>
+        <v>0.009990323402798382</v>
       </c>
       <c r="D227" t="n">
         <v>0.03000604353975574</v>
       </c>
       <c r="E227" t="n">
-        <v>0.0299771316913395</v>
+        <v>0.02997713169133951</v>
       </c>
       <c r="F227" t="n">
-        <v>10.20885613825908</v>
+        <v>10.20885613825909</v>
       </c>
       <c r="G227" t="n">
         <v>10.47612741754331</v>
       </c>
       <c r="H227" t="n">
-        <v>2.192145681619613</v>
+        <v>2.192145681619614</v>
       </c>
       <c r="I227" t="n">
         <v>0.01000191455871979</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>0.009999436757264585</v>
+        <v>0.009999436757264587</v>
       </c>
       <c r="L227" t="n">
         <v>0.01000353578553276</v>
@@ -10602,39 +10602,39 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>76.2528158895784</v>
+        <v>76.25281588957843</v>
       </c>
       <c r="C229" t="n">
-        <v>0.009993909004370166</v>
+        <v>0.009993909004370168</v>
       </c>
       <c r="D229" t="n">
         <v>0.05000957649854251</v>
       </c>
       <c r="E229" t="n">
-        <v>0.08987880801180205</v>
+        <v>0.08987880801180206</v>
       </c>
       <c r="F229" t="n">
-        <v>7.645146560328037</v>
+        <v>7.64514656032804</v>
       </c>
       <c r="G229" t="n">
         <v>12.20906879513567</v>
       </c>
       <c r="H229" t="n">
-        <v>3.053573519955494</v>
+        <v>3.053573519955495</v>
       </c>
       <c r="I229" t="n">
-        <v>0.009962745754971896</v>
+        <v>0.009962745754971898</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>0.009993313403699902</v>
+        <v>0.009993313403699905</v>
       </c>
       <c r="L229" t="n">
         <v>0.009995793947148127</v>
       </c>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="n">
-        <v>0.4595682507206132</v>
+        <v>0.4595682507206134</v>
       </c>
       <c r="O229" t="n">
         <v>0.1999928376612107</v>
@@ -10825,11 +10825,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>76.82029069486194</v>
+        <v>76.82029069486195</v>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="n">
-        <v>0.04995644817622319</v>
+        <v>0.0499564481762232</v>
       </c>
       <c r="E234" t="n">
         <v>0.01996909697731892</v>
@@ -10848,17 +10848,17 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>0.009991741260266297</v>
+        <v>0.0099917412602663</v>
       </c>
       <c r="L234" t="n">
-        <v>0.009991384855235357</v>
+        <v>0.009991384855235361</v>
       </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="n">
-        <v>0.3499545822311717</v>
+        <v>0.3499545822311718</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1701728262441382</v>
+        <v>0.1701728262441383</v>
       </c>
     </row>
     <row r="235">
@@ -10878,23 +10878,23 @@
         <v>0.0701568478589407</v>
       </c>
       <c r="F235" t="n">
-        <v>9.927075316164256</v>
+        <v>9.927075316164258</v>
       </c>
       <c r="G235" t="n">
         <v>10.47258544567463</v>
       </c>
       <c r="H235" t="n">
-        <v>2.10580277958249</v>
+        <v>2.105802779582491</v>
       </c>
       <c r="I235" t="n">
         <v>0.009998532917910356</v>
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>0.009996055954198212</v>
+        <v>0.009996055954198214</v>
       </c>
       <c r="L235" t="n">
-        <v>0.009989638187968679</v>
+        <v>0.009989638187968681</v>
       </c>
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="n">
@@ -10999,35 +10999,35 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>76.68454724777628</v>
+        <v>76.68454724777631</v>
       </c>
       <c r="C238" t="n">
         <v>0.03008446884575267</v>
       </c>
       <c r="D238" t="n">
-        <v>0.04996741410901447</v>
+        <v>0.04996741410901449</v>
       </c>
       <c r="E238" t="n">
-        <v>0.1097592618452305</v>
+        <v>0.1097592618452306</v>
       </c>
       <c r="F238" t="n">
-        <v>7.500151446211244</v>
+        <v>7.500151446211245</v>
       </c>
       <c r="G238" t="n">
         <v>12.09451245789447</v>
       </c>
       <c r="H238" t="n">
-        <v>3.050999093911222</v>
+        <v>3.050999093911223</v>
       </c>
       <c r="I238" t="n">
-        <v>0.009954346300373392</v>
+        <v>0.009954346300373394</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>0.01000139212533664</v>
+        <v>0.01000139212533665</v>
       </c>
       <c r="L238" t="n">
-        <v>0.009997835567838459</v>
+        <v>0.00999783556783846</v>
       </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="n">
@@ -11063,21 +11063,21 @@
         <v>2.052747261451446</v>
       </c>
       <c r="I239" t="n">
-        <v>0.009990286268207882</v>
+        <v>0.009990286268207881</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>0.01000437488203357</v>
+        <v>0.01000437488203356</v>
       </c>
       <c r="L239" t="n">
         <v>0.01000241234582946</v>
       </c>
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="n">
-        <v>0.08995493638862521</v>
+        <v>0.0899549363886252</v>
       </c>
       <c r="O239" t="n">
-        <v>0.08960552008171895</v>
+        <v>0.08960552008171893</v>
       </c>
     </row>
     <row r="240">
@@ -11087,13 +11087,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>76.94430252621882</v>
+        <v>76.94430252621883</v>
       </c>
       <c r="C240" t="n">
         <v>0.01001032500883374</v>
       </c>
       <c r="D240" t="n">
-        <v>0.07004431437956454</v>
+        <v>0.07004431437956456</v>
       </c>
       <c r="E240" t="n">
         <v>0.1001017428217258</v>
@@ -11119,10 +11119,10 @@
       </c>
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="n">
-        <v>0.07990275656508974</v>
+        <v>0.07990275656508976</v>
       </c>
       <c r="O240" t="n">
-        <v>0.06001043522672939</v>
+        <v>0.06001043522672941</v>
       </c>
     </row>
     <row r="241">
@@ -11227,7 +11227,7 @@
         <v>77.72005217910404</v>
       </c>
       <c r="C243" t="n">
-        <v>0.02000313376561035</v>
+        <v>0.02000313376561034</v>
       </c>
       <c r="D243" t="n">
         <v>0.06004588449489032</v>
@@ -11236,7 +11236,7 @@
         <v>0.07988049432787175</v>
       </c>
       <c r="F243" t="n">
-        <v>7.403757644359783</v>
+        <v>7.403757644359782</v>
       </c>
       <c r="G243" t="n">
         <v>10.29969838275685</v>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>0.01000482380649758</v>
+        <v>0.01000482380649757</v>
       </c>
       <c r="L243" t="n">
         <v>0.01000446693481271</v>
@@ -11312,19 +11312,19 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>76.58212213940831</v>
+        <v>76.5821221394083</v>
       </c>
       <c r="C245" t="n">
         <v>0.02000211625749719</v>
       </c>
       <c r="D245" t="n">
-        <v>0.009961292976531659</v>
+        <v>0.009961292976531658</v>
       </c>
       <c r="E245" t="n">
         <v>0.009986917021671758</v>
       </c>
       <c r="F245" t="n">
-        <v>0.009977048349161771</v>
+        <v>0.009977048349161769</v>
       </c>
       <c r="G245" t="n">
         <v>17.87467093181865</v>
@@ -11333,7 +11333,7 @@
         <v>3.107910086146027</v>
       </c>
       <c r="I245" t="n">
-        <v>0.8967711648302497</v>
+        <v>0.8967711648302494</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>78.40456840632784</v>
+        <v>78.40456840632783</v>
       </c>
       <c r="C246" t="n">
         <v>0.03008940381285218</v>
@@ -11385,7 +11385,7 @@
         <v>0.00999626380811712</v>
       </c>
       <c r="L246" t="n">
-        <v>0.009994654562116331</v>
+        <v>0.00999465456211633</v>
       </c>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="n">
@@ -11402,25 +11402,25 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>77.02074352939307</v>
+        <v>77.02074352939306</v>
       </c>
       <c r="C247" t="n">
-        <v>0.02998363162134584</v>
+        <v>0.02998363162134583</v>
       </c>
       <c r="D247" t="n">
-        <v>0.01001834592896171</v>
+        <v>0.0100183459289617</v>
       </c>
       <c r="E247" t="n">
-        <v>0.009994393384739231</v>
+        <v>0.009994393384739227</v>
       </c>
       <c r="F247" t="n">
         <v>0.01003419153993008</v>
       </c>
       <c r="G247" t="n">
-        <v>18.08096104521136</v>
+        <v>18.08096104521135</v>
       </c>
       <c r="H247" t="n">
-        <v>2.208382440380345</v>
+        <v>2.208382440380344</v>
       </c>
       <c r="I247" t="n">
         <v>0.01001117202777245</v>
@@ -11434,10 +11434,10 @@
       </c>
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="n">
-        <v>0.09984041509059666</v>
+        <v>0.09984041509059664</v>
       </c>
       <c r="O247" t="n">
-        <v>2.50002400855713</v>
+        <v>2.500024008557129</v>
       </c>
     </row>
     <row r="248">
@@ -11447,16 +11447,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>77.01301772820625</v>
+        <v>77.01301772820622</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0299806240214948</v>
+        <v>0.02998062402149479</v>
       </c>
       <c r="D248" t="n">
         <v>0.0100173410081401</v>
       </c>
       <c r="E248" t="n">
-        <v>0.009993390866550817</v>
+        <v>0.009993390866550813</v>
       </c>
       <c r="F248" t="n">
         <v>0.01003318502966602</v>
@@ -11465,14 +11465,14 @@
         <v>18.07914737912737</v>
       </c>
       <c r="H248" t="n">
-        <v>2.208160921827069</v>
+        <v>2.208160921827068</v>
       </c>
       <c r="I248" t="n">
         <v>0.01001016782655094</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>0.009999763526739531</v>
+        <v>0.009999763526739529</v>
       </c>
       <c r="L248" t="n">
         <v>0.01000505649209823</v>
@@ -11482,7 +11482,7 @@
         <v>0.1098612060634925</v>
       </c>
       <c r="O248" t="n">
-        <v>2.499773236004603</v>
+        <v>2.499773236004602</v>
       </c>
     </row>
     <row r="249">
@@ -11492,19 +11492,19 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>79.40791552081237</v>
+        <v>79.4079155208124</v>
       </c>
       <c r="C249" t="n">
-        <v>0.01000645542050818</v>
+        <v>0.01000645542050819</v>
       </c>
       <c r="D249" t="n">
-        <v>0.05999078781853968</v>
+        <v>0.05999078781853969</v>
       </c>
       <c r="E249" t="n">
-        <v>2.580416810564533</v>
+        <v>2.580416810564534</v>
       </c>
       <c r="F249" t="n">
-        <v>0.01004756207989919</v>
+        <v>0.0100475620798992</v>
       </c>
       <c r="G249" t="n">
         <v>17.76148585301498</v>
@@ -11517,17 +11517,17 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>0.01000958659254109</v>
+        <v>0.0100095865925411</v>
       </c>
       <c r="L249" t="n">
         <v>0.01000214458998524</v>
       </c>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="n">
-        <v>0.05017174514887154</v>
+        <v>0.05017174514887155</v>
       </c>
       <c r="O249" t="n">
-        <v>0.06998347053020493</v>
+        <v>0.06998347053020496</v>
       </c>
     </row>
     <row r="250">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>77.11493927402223</v>
+        <v>77.11493927402222</v>
       </c>
       <c r="C253" t="n">
         <v>0.02994342478764093</v>
@@ -11893,7 +11893,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>78.33980345159401</v>
+        <v>78.33980345159399</v>
       </c>
       <c r="C258" t="n">
         <v>0.01998284747622898</v>
@@ -11902,7 +11902,7 @@
         <v>0.010013860621874</v>
       </c>
       <c r="E258" t="n">
-        <v>0.009987482473558596</v>
+        <v>0.009987482473558594</v>
       </c>
       <c r="F258" t="n">
         <v>0.01003511182028649</v>
@@ -11918,14 +11918,14 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>0.009994677358779616</v>
+        <v>0.009994677358779614</v>
       </c>
       <c r="L258" t="n">
-        <v>0.009994320849018154</v>
+        <v>0.009994320849018152</v>
       </c>
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="n">
-        <v>0.09016630444905914</v>
+        <v>0.09016630444905913</v>
       </c>
       <c r="O258" t="n">
         <v>2.061492588067645</v>
@@ -12034,13 +12034,13 @@
         <v>0.01001771529586728</v>
       </c>
       <c r="D261" t="n">
-        <v>0.02001033533700681</v>
+        <v>0.0200103353370068</v>
       </c>
       <c r="E261" t="n">
         <v>0.01003186414899209</v>
       </c>
       <c r="F261" t="n">
-        <v>0.009972581844474276</v>
+        <v>0.009972581844474275</v>
       </c>
       <c r="G261" t="n">
         <v>18.17649546274206</v>
@@ -12049,7 +12049,7 @@
         <v>3.05586898116885</v>
       </c>
       <c r="I261" t="n">
-        <v>0.01003934064158347</v>
+        <v>0.01003934064158346</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
@@ -12060,7 +12060,7 @@
       </c>
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="n">
-        <v>0.09020672485082644</v>
+        <v>0.09020672485082643</v>
       </c>
       <c r="O261" t="n">
         <v>1.263393519198328</v>
@@ -12073,13 +12073,13 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>77.60505344311625</v>
+        <v>77.60505344311623</v>
       </c>
       <c r="C262" t="n">
         <v>0.2905565758646996</v>
       </c>
       <c r="D262" t="n">
-        <v>0.009991738157176187</v>
+        <v>0.009991738157176185</v>
       </c>
       <c r="E262" t="n">
         <v>0.01001744051832255</v>
@@ -12094,7 +12094,7 @@
         <v>1.999207908321092</v>
       </c>
       <c r="I262" t="n">
-        <v>0.09984583309184634</v>
+        <v>0.09984583309184632</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
@@ -12107,10 +12107,10 @@
         <v>1.278990173687791</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0300155055182885</v>
+        <v>0.03001550551828849</v>
       </c>
       <c r="O262" t="n">
-        <v>0.009973536732423734</v>
+        <v>0.009973536732423733</v>
       </c>
     </row>
     <row r="263">
@@ -12143,14 +12143,14 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>0.009998765899374557</v>
+        <v>0.009998765899374555</v>
       </c>
       <c r="L263" t="n">
         <v>0.009994885875147992</v>
       </c>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="n">
-        <v>0.04973997935076663</v>
+        <v>0.04973997935076662</v>
       </c>
       <c r="O263" t="n">
         <v>1.395039360288878</v>
@@ -12163,16 +12163,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>76.85851592811005</v>
+        <v>76.85851592811007</v>
       </c>
       <c r="C264" t="n">
-        <v>0.02996028224014294</v>
+        <v>0.02996028224014295</v>
       </c>
       <c r="D264" t="n">
         <v>0.009966367107175836</v>
       </c>
       <c r="E264" t="n">
-        <v>0.009993906718942402</v>
+        <v>0.009993906718942404</v>
       </c>
       <c r="F264" t="n">
         <v>0.009976847091182267</v>
@@ -12184,20 +12184,20 @@
         <v>0.01991694097613692</v>
       </c>
       <c r="I264" t="n">
-        <v>0.009952328673207167</v>
+        <v>0.009952328673207169</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>0.009999070308931721</v>
+        <v>0.009999070308931723</v>
       </c>
       <c r="L264" t="n">
-        <v>0.00999207097740306</v>
+        <v>0.009992070977403062</v>
       </c>
       <c r="M264" t="n">
         <v>2.998349938180833</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09977935558229536</v>
+        <v>0.09977935558229539</v>
       </c>
       <c r="O264" t="n">
         <v>1.402736788702075</v>
@@ -12253,25 +12253,25 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>78.45573863679387</v>
+        <v>78.45573863679385</v>
       </c>
       <c r="C266" t="n">
         <v>0.01001364667537289</v>
       </c>
       <c r="D266" t="n">
-        <v>0.04005252549564005</v>
+        <v>0.04005252549564004</v>
       </c>
       <c r="E266" t="n">
-        <v>0.1001349589869701</v>
+        <v>0.10013495898697</v>
       </c>
       <c r="F266" t="n">
-        <v>7.95046334340999</v>
+        <v>7.950463343409989</v>
       </c>
       <c r="G266" t="n">
         <v>10.20299379879273</v>
       </c>
       <c r="H266" t="n">
-        <v>3.080624695604689</v>
+        <v>3.080624695604688</v>
       </c>
       <c r="I266" t="n">
         <v>0.01003030661113658</v>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="n">
-        <v>0.07992927022100342</v>
+        <v>0.07992927022100341</v>
       </c>
       <c r="O266" t="n">
         <v>0.05001113868431484</v>
@@ -12298,32 +12298,32 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>78.80817057487073</v>
+        <v>78.80817057487074</v>
       </c>
       <c r="C267" t="n">
         <v>0.01000319611920342</v>
       </c>
       <c r="D267" t="n">
-        <v>0.080070125692648</v>
+        <v>0.08007012569264803</v>
       </c>
       <c r="E267" t="n">
         <v>0.1199497738217864</v>
       </c>
       <c r="F267" t="n">
-        <v>8.901409291631619</v>
+        <v>8.901409291631621</v>
       </c>
       <c r="G267" t="n">
-        <v>8.355838911544845</v>
+        <v>8.355838911544847</v>
       </c>
       <c r="H267" t="n">
         <v>3.244235285232445</v>
       </c>
       <c r="I267" t="n">
-        <v>0.009972003910498468</v>
+        <v>0.009972003910498472</v>
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>0.01000259996505484</v>
+        <v>0.01000259996505485</v>
       </c>
       <c r="L267" t="n">
         <v>0.0100050828136163</v>
@@ -12333,7 +12333,7 @@
         <v>0.2501644678909514</v>
       </c>
       <c r="O267" t="n">
-        <v>0.2001786865065798</v>
+        <v>0.2001786865065799</v>
       </c>
     </row>
     <row r="268">
@@ -12388,39 +12388,39 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>78.85729948701436</v>
+        <v>78.85729948701437</v>
       </c>
       <c r="C269" t="n">
         <v>0.03008075663233031</v>
       </c>
       <c r="D269" t="n">
-        <v>0.06996526398322886</v>
+        <v>0.06996526398322887</v>
       </c>
       <c r="E269" t="n">
-        <v>0.03995741835145304</v>
+        <v>0.03995741835145305</v>
       </c>
       <c r="F269" t="n">
-        <v>8.893786476144061</v>
+        <v>8.893786476144063</v>
       </c>
       <c r="G269" t="n">
-        <v>8.44426402102626</v>
+        <v>8.444264021026262</v>
       </c>
       <c r="H269" t="n">
-        <v>3.25513363568366</v>
+        <v>3.255133635683661</v>
       </c>
       <c r="I269" t="n">
-        <v>0.009953118003535695</v>
+        <v>0.009953118003535696</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>0.01000015802337259</v>
+        <v>0.0100001580233726</v>
       </c>
       <c r="L269" t="n">
-        <v>0.009996601904728775</v>
+        <v>0.009996601904728777</v>
       </c>
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="n">
-        <v>0.1500061110158223</v>
+        <v>0.1500061110158224</v>
       </c>
       <c r="O269" t="n">
         <v>0.2295569522171661</v>
@@ -12451,21 +12451,21 @@
         <v>18.13064400124016</v>
       </c>
       <c r="H270" t="n">
-        <v>0.9999096373046986</v>
+        <v>0.9999096373046985</v>
       </c>
       <c r="I270" t="n">
         <v>0.01003868077680459</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>0.009995259187314299</v>
+        <v>0.009995259187314297</v>
       </c>
       <c r="L270" t="n">
         <v>0.01000216732885359</v>
       </c>
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="n">
-        <v>0.07999600207442562</v>
+        <v>0.0799960020744256</v>
       </c>
       <c r="O270" t="n">
         <v>1.80156420500086</v>
@@ -12487,10 +12487,10 @@
         <v>0.2094890080244633</v>
       </c>
       <c r="E271" t="n">
-        <v>0.1897795179792398</v>
+        <v>0.1897795179792397</v>
       </c>
       <c r="F271" t="n">
-        <v>4.979819829939033</v>
+        <v>4.979819829939032</v>
       </c>
       <c r="G271" t="n">
         <v>12.28339028318281</v>
@@ -12510,7 +12510,7 @@
       </c>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="n">
-        <v>0.2301808289075321</v>
+        <v>0.230180828907532</v>
       </c>
       <c r="O271" t="n">
         <v>0.1400780505443051</v>
@@ -12523,16 +12523,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>79.17191312066649</v>
+        <v>79.17191312066647</v>
       </c>
       <c r="C272" t="n">
         <v>0.01000773881482515</v>
       </c>
       <c r="D272" t="n">
-        <v>0.08003328631541706</v>
+        <v>0.08003328631541705</v>
       </c>
       <c r="E272" t="n">
-        <v>0.04989515556268948</v>
+        <v>0.04989515556268947</v>
       </c>
       <c r="F272" t="n">
         <v>4.655693958886777</v>
@@ -12541,21 +12541,21 @@
         <v>12.09562322916675</v>
       </c>
       <c r="H272" t="n">
-        <v>3.13651056588275</v>
+        <v>3.136510565882748</v>
       </c>
       <c r="I272" t="n">
-        <v>0.01004576288512988</v>
+        <v>0.01004576288512987</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
         <v>0.01000231066249094</v>
       </c>
       <c r="L272" t="n">
-        <v>0.009998753778355208</v>
+        <v>0.009998753778355206</v>
       </c>
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="n">
-        <v>0.5704335388987218</v>
+        <v>0.5704335388987217</v>
       </c>
       <c r="O272" t="n">
         <v>0.1998425784796245</v>
@@ -12568,10 +12568,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>79.28019193770774</v>
+        <v>79.28019193770776</v>
       </c>
       <c r="C273" t="n">
-        <v>0.009987542453634729</v>
+        <v>0.009987542453634731</v>
       </c>
       <c r="D273" t="n">
         <v>2.498885912154473</v>
@@ -12580,7 +12580,7 @@
         <v>0.02001024560355694</v>
       </c>
       <c r="F273" t="n">
-        <v>0.009977628022118021</v>
+        <v>0.009977628022118023</v>
       </c>
       <c r="G273" t="n">
         <v>18.04122529009994</v>
@@ -12589,18 +12589,18 @@
         <v>0.01994639701994531</v>
       </c>
       <c r="I273" t="n">
-        <v>0.009956399056569342</v>
+        <v>0.009956399056569344</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>0.00998694723238776</v>
+        <v>0.009986947232387761</v>
       </c>
       <c r="L273" t="n">
-        <v>0.009999897292264019</v>
+        <v>0.009999897292264021</v>
       </c>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="n">
-        <v>0.04985871663641148</v>
+        <v>0.0498587166364115</v>
       </c>
       <c r="O273" t="n">
         <v>0.03997308672093722</v>
@@ -12622,10 +12622,10 @@
         <v>0.05003168641891834</v>
       </c>
       <c r="E274" t="n">
-        <v>0.1201562601638241</v>
+        <v>0.120156260163824</v>
       </c>
       <c r="F274" t="n">
-        <v>4.799856023628126</v>
+        <v>4.799856023628125</v>
       </c>
       <c r="G274" t="n">
         <v>12.19065671567645</v>
@@ -12638,10 +12638,10 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>0.009994735792587004</v>
+        <v>0.009994735792587002</v>
       </c>
       <c r="L274" t="n">
-        <v>0.01000164357238632</v>
+        <v>0.01000164357238631</v>
       </c>
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="n">
@@ -12658,19 +12658,19 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>79.12586927546729</v>
+        <v>79.12586927546728</v>
       </c>
       <c r="C275" t="n">
         <v>0.01001069995067901</v>
       </c>
       <c r="D275" t="n">
-        <v>0.01003454048163502</v>
+        <v>0.01003454048163501</v>
       </c>
       <c r="E275" t="n">
         <v>0.01001054921837231</v>
       </c>
       <c r="F275" t="n">
-        <v>0.009958206094880157</v>
+        <v>0.009958206094880155</v>
       </c>
       <c r="G275" t="n">
         <v>17.38161792085427</v>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="n">
-        <v>0.07990574936372138</v>
+        <v>0.07990574936372137</v>
       </c>
       <c r="O275" t="n">
         <v>1.901391934995227</v>
@@ -12703,7 +12703,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>78.910719170386</v>
+        <v>78.91071917038597</v>
       </c>
       <c r="C276" t="n">
         <v>0.01000472143557196</v>
@@ -12712,7 +12712,7 @@
         <v>0.01000725569527077</v>
       </c>
       <c r="E276" t="n">
-        <v>0.00998332966633483</v>
+        <v>0.009983329666334827</v>
       </c>
       <c r="F276" t="n">
         <v>0.01002308376526683</v>
@@ -12721,7 +12721,7 @@
         <v>17.12675871798589</v>
       </c>
       <c r="H276" t="n">
-        <v>2.002312751981761</v>
+        <v>2.00231275198176</v>
       </c>
       <c r="I276" t="n">
         <v>0.01000008973553624</v>
@@ -12735,10 +12735,10 @@
       </c>
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="n">
-        <v>0.07014494831412781</v>
+        <v>0.07014494831412779</v>
       </c>
       <c r="O276" t="n">
-        <v>1.820034398857884</v>
+        <v>1.820034398857883</v>
       </c>
     </row>
     <row r="277">
@@ -12748,25 +12748,25 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>79.41366723040379</v>
+        <v>79.4136672304038</v>
       </c>
       <c r="C277" t="n">
-        <v>0.02000871474896713</v>
+        <v>0.02000871474896714</v>
       </c>
       <c r="D277" t="n">
-        <v>0.009973261211911975</v>
+        <v>0.009973261211911976</v>
       </c>
       <c r="E277" t="n">
-        <v>0.009996974883506749</v>
+        <v>0.009996974883506751</v>
       </c>
       <c r="F277" t="n">
-        <v>0.00999442625113481</v>
+        <v>0.009994426251134812</v>
       </c>
       <c r="G277" t="n">
         <v>17.75821897140867</v>
       </c>
       <c r="H277" t="n">
-        <v>0.6403839283018999</v>
+        <v>0.6403839283019001</v>
       </c>
       <c r="I277" t="n">
         <v>0.009973161544724246</v>
@@ -12780,10 +12780,10 @@
       </c>
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="n">
-        <v>0.08019638391175379</v>
+        <v>0.08019638391175381</v>
       </c>
       <c r="O277" t="n">
-        <v>2.02757694189458</v>
+        <v>2.027576941894581</v>
       </c>
     </row>
     <row r="278">
@@ -12838,7 +12838,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>79.35278447886586</v>
+        <v>79.35278447886584</v>
       </c>
       <c r="C279" t="n">
         <v>0.009993034091533301</v>
@@ -12856,7 +12856,7 @@
         <v>12.07785070373235</v>
       </c>
       <c r="H279" t="n">
-        <v>2.978711122648209</v>
+        <v>2.978711122648208</v>
       </c>
       <c r="I279" t="n">
         <v>0.01003100229173164</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="n">
-        <v>0.249856125022827</v>
+        <v>0.2498561250228269</v>
       </c>
       <c r="O279" t="n">
         <v>0.150298565380665</v>
@@ -12886,7 +12886,7 @@
         <v>79.23400226033101</v>
       </c>
       <c r="C280" t="n">
-        <v>0.009999350854854139</v>
+        <v>0.009999350854854138</v>
       </c>
       <c r="D280" t="n">
         <v>0.01994901644044647</v>
@@ -12918,7 +12918,7 @@
         <v>0.3097019401154562</v>
       </c>
       <c r="O280" t="n">
-        <v>0.2102725940717236</v>
+        <v>0.2102725940717235</v>
       </c>
     </row>
     <row r="281">
@@ -12928,10 +12928,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>79.6884405732455</v>
+        <v>79.68844057324551</v>
       </c>
       <c r="C281" t="n">
-        <v>0.01998501874857576</v>
+        <v>0.01998501874857577</v>
       </c>
       <c r="D281" t="n">
         <v>0.009982780766537174</v>
@@ -12943,13 +12943,13 @@
         <v>0.01000396600795293</v>
       </c>
       <c r="G281" t="n">
-        <v>17.87972914774027</v>
+        <v>17.87972914774028</v>
       </c>
       <c r="H281" t="n">
         <v>0.2991310838565923</v>
       </c>
       <c r="I281" t="n">
-        <v>0.009982681004216346</v>
+        <v>0.009982681004216348</v>
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="n">
-        <v>0.09998065779263977</v>
+        <v>0.09998065779263979</v>
       </c>
       <c r="O281" t="n">
         <v>1.952766017021152</v>
@@ -13018,39 +13018,39 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>79.64830983101507</v>
+        <v>79.6483098310151</v>
       </c>
       <c r="C283" t="n">
-        <v>0.009996383772192552</v>
+        <v>0.009996383772192554</v>
       </c>
       <c r="D283" t="n">
-        <v>0.05002196025055342</v>
+        <v>0.05002196025055343</v>
       </c>
       <c r="E283" t="n">
-        <v>0.05993404299093946</v>
+        <v>0.05993404299093947</v>
       </c>
       <c r="F283" t="n">
-        <v>4.863776163615582</v>
+        <v>4.863776163615583</v>
       </c>
       <c r="G283" t="n">
         <v>11.58583096447274</v>
       </c>
       <c r="H283" t="n">
-        <v>2.951949903630796</v>
+        <v>2.951949903630797</v>
       </c>
       <c r="I283" t="n">
-        <v>0.009965212805913247</v>
+        <v>0.009965212805913249</v>
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>0.009995788024035116</v>
+        <v>0.009995788024035118</v>
       </c>
       <c r="L283" t="n">
-        <v>0.00999826918173439</v>
+        <v>0.009998269181734392</v>
       </c>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="n">
-        <v>0.5806005047349266</v>
+        <v>0.5806005047349269</v>
       </c>
       <c r="O283" t="n">
         <v>0.2196209755054903</v>
@@ -13111,32 +13111,32 @@
         <v>79.29450765115249</v>
       </c>
       <c r="C285" t="n">
-        <v>0.3700094862299231</v>
+        <v>0.3700094862299232</v>
       </c>
       <c r="D285" t="n">
         <v>0.1799405388730068</v>
       </c>
       <c r="E285" t="n">
-        <v>0.009994358622288984</v>
+        <v>0.009994358622288986</v>
       </c>
       <c r="F285" t="n">
-        <v>7.410546875631688</v>
+        <v>7.410546875631689</v>
       </c>
       <c r="G285" t="n">
-        <v>0.009996450589752378</v>
+        <v>0.009996450589752379</v>
       </c>
       <c r="H285" t="n">
-        <v>6.845961753505519</v>
+        <v>6.845961753505521</v>
       </c>
       <c r="I285" t="n">
-        <v>0.9560185080523042</v>
+        <v>0.9560185080523044</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
         <v>0.01000073189960341</v>
       </c>
       <c r="L285" t="n">
-        <v>4.883023854728191</v>
+        <v>4.883023854728192</v>
       </c>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="n">
@@ -13151,20 +13151,20 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>79.42878251428237</v>
+        <v>79.42878251428236</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="n">
         <v>0.03994624339959382</v>
       </c>
       <c r="E286" t="n">
-        <v>0.05976885229616317</v>
+        <v>0.05976885229616315</v>
       </c>
       <c r="F286" t="n">
-        <v>5.007131610845873</v>
+        <v>5.007131610845872</v>
       </c>
       <c r="G286" t="n">
-        <v>11.86616551692281</v>
+        <v>11.8661655169228</v>
       </c>
       <c r="H286" t="n">
         <v>2.977846243896356</v>
@@ -13184,7 +13184,7 @@
         <v>0.3899877709672677</v>
       </c>
       <c r="O286" t="n">
-        <v>0.2003399009183623</v>
+        <v>0.2003399009183622</v>
       </c>
     </row>
     <row r="287">
@@ -13194,16 +13194,16 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>81.20259241727229</v>
+        <v>81.2025924172723</v>
       </c>
       <c r="C287" t="n">
         <v>0.01000476869767235</v>
       </c>
       <c r="D287" t="n">
-        <v>0.03999161584679892</v>
+        <v>0.03999161584679893</v>
       </c>
       <c r="E287" t="n">
-        <v>1.871510641073202</v>
+        <v>1.871510641073203</v>
       </c>
       <c r="F287" t="n">
         <v>0.00998035189475629</v>
@@ -13222,14 +13222,14 @@
         <v>0.009993100638396918</v>
       </c>
       <c r="L287" t="n">
-        <v>0.009999267673823439</v>
+        <v>0.009999267673823441</v>
       </c>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="n">
-        <v>0.04983613614704767</v>
+        <v>0.04983613614704768</v>
       </c>
       <c r="O287" t="n">
-        <v>0.08000331163482716</v>
+        <v>0.08000331163482717</v>
       </c>
     </row>
     <row r="288">
@@ -13239,13 +13239,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>79.4006825886033</v>
+        <v>79.40068258860329</v>
       </c>
       <c r="C288" t="n">
-        <v>0.009995428579140909</v>
+        <v>0.009995428579140908</v>
       </c>
       <c r="D288" t="n">
-        <v>0.08005658782572253</v>
+        <v>0.08005658782572252</v>
       </c>
       <c r="E288" t="n">
         <v>0.04003084005873407</v>
@@ -13327,10 +13327,10 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>79.58427213115996</v>
+        <v>79.58427213115998</v>
       </c>
       <c r="C290" t="n">
-        <v>0.3708991374268799</v>
+        <v>0.37089913742688</v>
       </c>
       <c r="D290" t="n">
         <v>0.2300976885949409</v>
@@ -13342,20 +13342,20 @@
         <v>7.188442460874386</v>
       </c>
       <c r="G290" t="n">
-        <v>0.009999653454676139</v>
+        <v>0.009999653454676141</v>
       </c>
       <c r="H290" t="n">
-        <v>5.704494873519465</v>
+        <v>5.704494873519466</v>
       </c>
       <c r="I290" t="n">
         <v>1.102968806742103</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>0.7798881312256269</v>
+        <v>0.7798881312256271</v>
       </c>
       <c r="L290" t="n">
-        <v>4.988894690916305</v>
+        <v>4.988894690916306</v>
       </c>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="n">
@@ -13503,10 +13503,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>79.94441841848378</v>
+        <v>79.94441841848379</v>
       </c>
       <c r="C294" t="n">
-        <v>0.009983753056841864</v>
+        <v>0.009983753056841866</v>
       </c>
       <c r="D294" t="n">
         <v>1.717332240262541</v>
@@ -13515,7 +13515,7 @@
         <v>0.02000265346956937</v>
       </c>
       <c r="F294" t="n">
-        <v>0.009973842386982758</v>
+        <v>0.00997384238698276</v>
       </c>
       <c r="G294" t="n">
         <v>18.13862519911381</v>
@@ -13524,21 +13524,21 @@
         <v>0.01993882911089787</v>
       </c>
       <c r="I294" t="n">
-        <v>0.009952621475965446</v>
+        <v>0.009952621475965448</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
         <v>0.00999965914913402</v>
       </c>
       <c r="L294" t="n">
-        <v>0.009996103207892995</v>
+        <v>0.009996103207892997</v>
       </c>
       <c r="M294" t="inlineStr"/>
       <c r="N294" t="n">
         <v>0.04983979962436419</v>
       </c>
       <c r="O294" t="n">
-        <v>0.05993688065821322</v>
+        <v>0.05993688065821323</v>
       </c>
     </row>
     <row r="295">
@@ -13690,7 +13690,7 @@
         <v>0.01002394044456542</v>
       </c>
       <c r="E298" t="n">
-        <v>0.009999974524593761</v>
+        <v>0.009999974524593759</v>
       </c>
       <c r="F298" t="n">
         <v>0.01003979490415197</v>
@@ -13716,7 +13716,7 @@
         <v>0.09989616868146549</v>
       </c>
       <c r="O298" t="n">
-        <v>1.984177291450576</v>
+        <v>1.984177291450575</v>
       </c>
     </row>
     <row r="299">
@@ -13726,25 +13726,25 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>80.61092418641313</v>
+        <v>80.61092418641311</v>
       </c>
       <c r="C299" t="n">
-        <v>0.389080357046355</v>
+        <v>0.3890803570463549</v>
       </c>
       <c r="D299" t="n">
         <v>0.2200108576052467</v>
       </c>
       <c r="E299" t="n">
-        <v>0.009997540558194256</v>
+        <v>0.009997540558194254</v>
       </c>
       <c r="F299" t="n">
-        <v>6.987239625106298</v>
+        <v>6.987239625106296</v>
       </c>
       <c r="G299" t="n">
-        <v>0.009997398346428082</v>
+        <v>0.00999739834642808</v>
       </c>
       <c r="H299" t="n">
-        <v>5.755242541931547</v>
+        <v>5.755242541931546</v>
       </c>
       <c r="I299" t="n">
         <v>1.078975798873923</v>
@@ -13758,7 +13758,7 @@
       </c>
       <c r="M299" t="inlineStr"/>
       <c r="N299" t="n">
-        <v>0.03001531504152544</v>
+        <v>0.03001531504152543</v>
       </c>
       <c r="O299" t="inlineStr"/>
     </row>
@@ -13790,7 +13790,7 @@
         <v>3.096367319157614</v>
       </c>
       <c r="I300" t="n">
-        <v>0.009990738636880965</v>
+        <v>0.009990738636880967</v>
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="n">
-        <v>0.7023537649849033</v>
+        <v>0.7023537649849034</v>
       </c>
       <c r="O300" t="n">
         <v>0.2201835332758965</v>
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>80.79921190873189</v>
+        <v>80.79921190873191</v>
       </c>
       <c r="C302" t="n">
         <v>0.0200040155057759</v>
@@ -13872,10 +13872,10 @@
         <v>4.824350610876396</v>
       </c>
       <c r="G302" t="n">
-        <v>10.19246659427944</v>
+        <v>10.19246659427945</v>
       </c>
       <c r="H302" t="n">
-        <v>3.206278574971245</v>
+        <v>3.206278574971246</v>
       </c>
       <c r="I302" t="n">
         <v>0.009960178033927451</v>
@@ -13885,11 +13885,11 @@
         <v>0.009990737804386069</v>
       </c>
       <c r="L302" t="n">
-        <v>0.009993217708518206</v>
+        <v>0.009993217708518208</v>
       </c>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="n">
-        <v>0.5179601143695413</v>
+        <v>0.5179601143695414</v>
       </c>
       <c r="O302" t="n">
         <v>0.2399295516646409</v>
@@ -13902,13 +13902,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>80.67735272344775</v>
+        <v>80.67735272344777</v>
       </c>
       <c r="C303" t="n">
-        <v>0.3602539991941211</v>
+        <v>0.3602539991941212</v>
       </c>
       <c r="D303" t="n">
-        <v>0.2301059173579783</v>
+        <v>0.2301059173579784</v>
       </c>
       <c r="E303" t="n">
         <v>0.0100187473466913</v>
@@ -13920,7 +13920,7 @@
         <v>0.01000001106269575</v>
       </c>
       <c r="H303" t="n">
-        <v>5.755785733523591</v>
+        <v>5.755785733523592</v>
       </c>
       <c r="I303" t="n">
         <v>0.8598039728289758</v>
@@ -13945,28 +13945,28 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>80.96949379796942</v>
+        <v>80.96949379796943</v>
       </c>
       <c r="C304" t="n">
         <v>0.01999704058407778</v>
       </c>
       <c r="D304" t="n">
-        <v>0.009956804660830971</v>
+        <v>0.009956804660830973</v>
       </c>
       <c r="E304" t="n">
         <v>0.009980479203274346</v>
       </c>
       <c r="F304" t="n">
-        <v>0.009977934776317055</v>
+        <v>0.009977934776317057</v>
       </c>
       <c r="G304" t="n">
-        <v>15.3302985729097</v>
+        <v>15.33029857290971</v>
       </c>
       <c r="H304" t="n">
         <v>1.399700463261486</v>
       </c>
       <c r="I304" t="n">
-        <v>0.009956705158100798</v>
+        <v>0.0099567051581008</v>
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
@@ -13980,7 +13980,7 @@
         <v>0.1198563689971285</v>
       </c>
       <c r="O304" t="n">
-        <v>2.100777865617124</v>
+        <v>2.100777865617125</v>
       </c>
     </row>
     <row r="305">
@@ -14033,13 +14033,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>82.50169116611694</v>
+        <v>82.50169116611696</v>
       </c>
       <c r="C306" t="n">
         <v>0.1098453761367646</v>
       </c>
       <c r="D306" t="n">
-        <v>0.679816364601725</v>
+        <v>0.6798163646017251</v>
       </c>
       <c r="E306" t="n">
         <v>0.2497560409662132</v>
@@ -14048,7 +14048,7 @@
         <v>11.91155087711537</v>
       </c>
       <c r="G306" t="n">
-        <v>2.382119150244594</v>
+        <v>2.382119150244595</v>
       </c>
       <c r="H306" t="n">
         <v>1.765386514880921</v>
@@ -14057,17 +14057,17 @@
         <v>0.3298869184618411</v>
       </c>
       <c r="J306" t="n">
-        <v>0.01998555743996997</v>
+        <v>0.01998555743996998</v>
       </c>
       <c r="K306" t="n">
-        <v>0.009988141263598278</v>
+        <v>0.009988141263598279</v>
       </c>
       <c r="L306" t="n">
-        <v>0.009992658765552796</v>
+        <v>0.009992658765552798</v>
       </c>
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="n">
-        <v>0.02998123400650101</v>
+        <v>0.02998123400650102</v>
       </c>
       <c r="O306" t="inlineStr"/>
     </row>
@@ -14175,13 +14175,13 @@
         <v>0.18042819236381</v>
       </c>
       <c r="E309" t="n">
-        <v>0.009979759647014365</v>
+        <v>0.009979759647014363</v>
       </c>
       <c r="F309" t="n">
-        <v>7.269220725147106</v>
+        <v>7.269220725147105</v>
       </c>
       <c r="G309" t="n">
-        <v>0.009996155057449002</v>
+        <v>0.009996155057449</v>
       </c>
       <c r="H309" t="n">
         <v>3.771113097337901</v>
@@ -14258,26 +14258,26 @@
         <v>0.3698462416349901</v>
       </c>
       <c r="D311" t="n">
-        <v>0.170138926482862</v>
+        <v>0.1701389264828621</v>
       </c>
       <c r="E311" t="n">
-        <v>0.009989949208245212</v>
+        <v>0.009989949208245214</v>
       </c>
       <c r="F311" t="n">
-        <v>5.19889657025596</v>
+        <v>5.198896570255961</v>
       </c>
       <c r="G311" t="n">
-        <v>0.01000242698898233</v>
+        <v>0.01000242698898234</v>
       </c>
       <c r="H311" t="n">
-        <v>5.841121179339338</v>
+        <v>5.841121179339339</v>
       </c>
       <c r="I311" t="n">
         <v>1.045747356110769</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>0.9108488650077745</v>
+        <v>0.9108488650077746</v>
       </c>
       <c r="L311" t="n">
         <v>4.880869511985968</v>
@@ -14338,13 +14338,13 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>86.25046034335917</v>
+        <v>86.25046034335915</v>
       </c>
       <c r="C313" t="n">
         <v>0.2696297786398209</v>
       </c>
       <c r="D313" t="n">
-        <v>0.2703348792555203</v>
+        <v>0.2703348792555202</v>
       </c>
       <c r="E313" t="n">
         <v>0.009986614682898512</v>
@@ -14353,20 +14353,20 @@
         <v>0.4099332356605472</v>
       </c>
       <c r="G313" t="n">
-        <v>8.284904937006218</v>
+        <v>8.284904937006216</v>
       </c>
       <c r="H313" t="n">
         <v>0.4893752421599795</v>
       </c>
       <c r="I313" t="n">
-        <v>0.06998679437418609</v>
+        <v>0.06998679437418608</v>
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
         <v>0.01001091301546031</v>
       </c>
       <c r="L313" t="n">
-        <v>3.905382635084659</v>
+        <v>3.905382635084658</v>
       </c>
       <c r="M313" t="inlineStr"/>
       <c r="N313" t="n">
